--- a/MaternalHealth/DB and Documents/WASHB_DRAFT_Mathernal.xlsx
+++ b/MaternalHealth/DB and Documents/WASHB_DRAFT_Mathernal.xlsx
@@ -11697,8 +11697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK481"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -14978,7 +14978,7 @@
       <c r="D81" s="84" t="s">
         <v>760</v>
       </c>
-      <c r="E81" s="59" t="s">
+      <c r="E81" s="90" t="s">
         <v>2400</v>
       </c>
       <c r="F81" s="58" t="s">
@@ -30177,8 +30177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G1274"/>
+    <sheetView tabSelected="1" topLeftCell="B195" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202:F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -30335,7 +30335,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('5','qRes1', '2.Refused','2.Am¤§Z','2','qStart1');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="7" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A7" s="83">
         <v>6</v>
       </c>
@@ -30383,7 +30383,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('7','qRes1', '4.Incomplete','4.Am¤c~Y© ','4','qStart1');</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="57" customFormat="1" ht="28.5">
+    <row r="9" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A9" s="83">
         <v>8</v>
       </c>
@@ -30407,7 +30407,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('8','qRes1', '5.Household destroyed/Nobody lives at the house','5.emZevoxaŸsmcÖvß/Lvwj','5','qStart1');</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="10" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A10" s="83">
         <v>9</v>
       </c>
@@ -30429,7 +30429,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('9','qRes1', '6.Respondent absent','6. DËi`vZv Abycw¯’Z','6','');</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="58" customFormat="1" ht="31.5">
+    <row r="11" spans="1:7" s="58" customFormat="1" ht="51">
       <c r="A11" s="83">
         <v>10</v>
       </c>
@@ -30453,7 +30453,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('10','qRes1', '7.Refused to continue the interview (mention the reason)','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7','qRes1_7Other');</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="12" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A12" s="83">
         <v>11</v>
       </c>
@@ -30525,7 +30525,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','qRes2', '2.Refused','2.Am¤§Z','2','qStart2');</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="15" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A15" s="83">
         <v>14</v>
       </c>
@@ -30573,7 +30573,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('15','qRes2', '4.Incomplete','4.Am¤c~Y© ','4','qStart2');</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="57" customFormat="1" ht="28.5">
+    <row r="17" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A17" s="83">
         <v>16</v>
       </c>
@@ -30595,7 +30595,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('16','qRes2', '5.Household destroyed/Nobody lives at the house','5.emZevoxaŸsmcÖvß/Lvwj','5','');</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="18" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A18" s="83">
         <v>17</v>
       </c>
@@ -30617,7 +30617,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('17','qRes2', '6.Respondent absent','6. DËi`vZv Abycw¯’Z','6','');</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="57" customFormat="1" ht="28.5">
+    <row r="19" spans="1:7" s="57" customFormat="1" ht="51">
       <c r="A19" s="83">
         <v>18</v>
       </c>
@@ -30641,7 +30641,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('18','qRes2', '7.Refused to continue the interview (mention the reason)','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7','qRes2_7Other');</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="20" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A20" s="83">
         <v>19</v>
       </c>
@@ -30709,7 +30709,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('21','qRes3', '2.Refused','2.Am¤§Z','2','');</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="23" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A23" s="83">
         <v>22</v>
       </c>
@@ -30755,7 +30755,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','qRes3', '4.Incomplete','4.Am¤c~Y© ','4','');</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="57" customFormat="1" ht="28.5">
+    <row r="25" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A25" s="83">
         <v>24</v>
       </c>
@@ -30777,7 +30777,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('24','qRes3', '5.Household destroyed/Nobody lives at the house','5.emZevoxaŸsmcÖvß/Lvwj','5','');</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="26" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A26" s="83">
         <v>25</v>
       </c>
@@ -30799,7 +30799,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('25','qRes3', '6.Respondent absent','6. DËi`vZv Abycw¯’Z','6','');</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="57" customFormat="1" ht="28.5">
+    <row r="27" spans="1:7" s="57" customFormat="1" ht="51">
       <c r="A27" s="83">
         <v>26</v>
       </c>
@@ -30823,7 +30823,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','qRes3', '7.Refused to continue the interview (mention the reason)','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7','qRes3_7Other');</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="28" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A28" s="83">
         <v>27</v>
       </c>
@@ -31120,7 +31120,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('40','q_107', '4.CHRISTIANITY ','4.wLª÷vb','4','');</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="25.5">
+    <row r="42" spans="1:7" ht="38.25">
       <c r="A42" s="83">
         <v>41</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('43','q_108', '2.Can write only','2.ïay wjL‡Z cv‡i','2','');</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="25.5">
+    <row r="45" spans="1:7" ht="38.25">
       <c r="A45" s="83">
         <v>44</v>
       </c>
@@ -31315,7 +31315,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('49','q_109', '4.NO','4.bv','4','q_111');</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="51" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A51" s="83">
         <v>50</v>
       </c>
@@ -31339,7 +31339,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('50','q_109', '5.OTHER (Specify) ','5.Ab¨vb¨(wbw`©ó K‡i ejyb) ','6','q_109_other');</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="25.5">
+    <row r="52" spans="1:7" ht="38.25">
       <c r="A52" s="83">
         <v>51</v>
       </c>
@@ -31402,7 +31402,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('53','q_111', '3.STUDENT ','3.QvÎ','3','');</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="25.5">
+    <row r="55" spans="1:7" ht="38.25">
       <c r="A55" s="83">
         <v>54</v>
       </c>
@@ -31444,7 +31444,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('55','q_111', '5.HANDICRAFT ','5.n¯Íwkí','5','');</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="25.5">
+    <row r="57" spans="1:7" ht="38.25">
       <c r="A57" s="83">
         <v>56</v>
       </c>
@@ -31465,7 +31465,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('56','q_111', '6.GARMENT WORKER','6.Mv‡g©›Um Kg©x','6','');</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="25.5">
+    <row r="58" spans="1:7" ht="38.25">
       <c r="A58" s="83">
         <v>57</v>
       </c>
@@ -31486,7 +31486,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('57','q_111', '7.DOMESTIC WORKER ','7.M„ncwiPvwiKv','7','');</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.5">
+    <row r="59" spans="1:7" ht="38.25">
       <c r="A59" s="83">
         <v>58</v>
       </c>
@@ -31507,7 +31507,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('58','q_111', '8.GOVT. SERVICE','8.miKvix  PvKzwi','8','');</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="25.5">
+    <row r="60" spans="1:7" ht="38.25">
       <c r="A60" s="83">
         <v>59</v>
       </c>
@@ -31612,7 +31612,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('63','q_111', '13.DAY LABOUR','13.w`bgRyi','13','');</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="25.5">
+    <row r="65" spans="1:7" ht="38.25">
       <c r="A65" s="83">
         <v>64</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('65','q_111', '15.COOK ','15.ivuaywb','16','');</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="25.5">
+    <row r="67" spans="1:7" ht="38.25">
       <c r="A67" s="83">
         <v>66</v>
       </c>
@@ -31675,7 +31675,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('66','q_111', '16.SMALL TRADE ','16.‡QvU e¨emv (†`vKvb`vi bq)','16','');</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="25.5">
+    <row r="68" spans="1:7" ht="38.25">
       <c r="A68" s="83">
         <v>67</v>
       </c>
@@ -31699,7 +31699,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('67','q_111', '96.OTHER (specify)','96.Ab¨vb¨(wbw`©ó K‡i ejyb) ','96','q_111_other');</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="25.5">
+    <row r="69" spans="1:7" ht="38.25">
       <c r="A69" s="83">
         <v>68</v>
       </c>
@@ -31720,7 +31720,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('68','q_112', '1.THIS COMMUNITY/NEIGHBOURHOOD ','1.GB GjvKvq /cvovq','1','');</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="25.5">
+    <row r="70" spans="1:7" ht="38.25">
       <c r="A70" s="83">
         <v>69</v>
       </c>
@@ -31741,7 +31741,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('69','q_112', '2.ANOTHER RURAL AREA/VILLAGE ','2.Ab¨ MÖvgxb GjvKvq/MÖv‡g','2','');</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="25.5">
+    <row r="71" spans="1:7" ht="38.25">
       <c r="A71" s="83">
         <v>70</v>
       </c>
@@ -31783,7 +31783,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('71','q_112', '4.ANOTHER COUNTRY','4.Ab¨ †`‡k','4','');</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="25.5">
+    <row r="73" spans="1:7" ht="38.25">
       <c r="A73" s="83">
         <v>72</v>
       </c>
@@ -31846,7 +31846,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('74','q_113', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="25.5">
+    <row r="76" spans="1:7" ht="38.25">
       <c r="A76" s="83">
         <v>75</v>
       </c>
@@ -31870,7 +31870,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('75','q_113', '3.LIVING WITH FAMILY OF BIRTH','3.Rb¥cwiev‡ii mv‡_B evm Kwi','3','q_115');</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="25.5">
+    <row r="77" spans="1:7" ht="38.25">
       <c r="A77" s="83">
         <v>76</v>
       </c>
@@ -31891,7 +31891,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('76','q_114', '1.AT LEAST ONCE A WEEK ','1.Kgc‡¶ mßv‡n GKevi','1','');</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="25.5">
+    <row r="78" spans="1:7" ht="38.25">
       <c r="A78" s="83">
         <v>77</v>
       </c>
@@ -31912,7 +31912,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('77','q_114', '2.AT LEAST ONCE A WEEK ','2.Kgc‡¶ gv‡m GKevi','2','');</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="25.5">
+    <row r="79" spans="1:7" ht="38.25">
       <c r="A79" s="83">
         <v>78</v>
       </c>
@@ -31933,7 +31933,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('78','q_114', '3.AT LEAST ONCE A YEAR ','3.Kgc‡¶ eQ‡i GKevi','3','');</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="25.5">
+    <row r="80" spans="1:7" ht="38.25">
       <c r="A80" s="83">
         <v>79</v>
       </c>
@@ -32044,7 +32044,7 @@
       </c>
       <c r="H84" s="22"/>
     </row>
-    <row r="85" spans="1:8" ht="25.5">
+    <row r="85" spans="1:8" ht="38.25">
       <c r="A85" s="83">
         <v>84</v>
       </c>
@@ -32065,7 +32065,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('84','q_116_yes_7', '7.ANY OTHER ORGANIZATION (such as microcredit)','7.Ab¨ †Kvb cÖwZôvb(‡hgb ÿz`ª FY) ','0','');</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="25.5">
+    <row r="86" spans="1:8" ht="38.25">
       <c r="A86" s="83">
         <v>85</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('89','q_116_yes_2', '2.BRAC','2.eª¨vK','0','');</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="25.5">
+    <row r="91" spans="1:8" ht="38.25">
       <c r="A91" s="83">
         <v>90</v>
       </c>
@@ -32191,7 +32191,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('90','q_116_yes_1', '1.GRAMEEN BANK','1.MÖvgxb e¨vsK','0','');</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="23" customFormat="1" ht="30">
+    <row r="92" spans="1:8" s="23" customFormat="1" ht="38.25">
       <c r="A92" s="83">
         <v>91</v>
       </c>
@@ -32212,7 +32212,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('91','q_116_yes_Options', '1.At least once a week','1.Kgc‡¶ mßv‡n GKevi','1','');</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="23" customFormat="1" ht="30">
+    <row r="93" spans="1:8" s="23" customFormat="1" ht="38.25">
       <c r="A93" s="83">
         <v>92</v>
       </c>
@@ -32233,7 +32233,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('92','q_116_yes_Options', '2.At least once a month','2.Kgc‡¶ gv‡m GKevi','2','');</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="23" customFormat="1" ht="30">
+    <row r="94" spans="1:8" s="23" customFormat="1" ht="38.25">
       <c r="A94" s="83">
         <v>93</v>
       </c>
@@ -32254,7 +32254,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('93','q_116_yes_Options', '3.At least once a year','3.Kgc‡¶ eQ‡i GKevi','3','');</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="23" customFormat="1" ht="30">
+    <row r="95" spans="1:8" s="23" customFormat="1" ht="38.25">
       <c r="A95" s="83">
         <v>94</v>
       </c>
@@ -32275,7 +32275,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('94','q_116_yes_Options', '4.Never (hardly ever)','4.KL‡bvB bv','4','');</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="25.5">
+    <row r="96" spans="1:8" ht="38.25">
       <c r="A96" s="83">
         <v>95</v>
       </c>
@@ -32299,7 +32299,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('95','q_117', '1.CURRENTLY MARRIED AND LIVING WITH PARTNER','1.eZ©gv‡b weevwnZ, ¯^vgxi mv‡_ _v‡Kb','1','q_119');</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30">
+    <row r="97" spans="1:7" ht="51">
       <c r="A97" s="83">
         <v>96</v>
       </c>
@@ -32344,7 +32344,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('97','q_117', '3.SEPARATED','3.Avjv`v _v‡Kb','3','');</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="25.5">
+    <row r="99" spans="1:7" ht="38.25">
       <c r="A99" s="83">
         <v>98</v>
       </c>
@@ -32453,7 +32453,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('102','q_118', '2.HUSBAND','2.¯^vgx','2','');</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="25.5">
+    <row r="104" spans="1:7" ht="38.25">
       <c r="A104" s="83">
         <v>103</v>
       </c>
@@ -32625,7 +32625,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('110','q_121', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="25.5">
+    <row r="112" spans="1:7" ht="38.25">
       <c r="A112" s="83">
         <v>111</v>
       </c>
@@ -32647,7 +32647,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('111','q_121', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="25.5">
+    <row r="113" spans="1:7" ht="38.25">
       <c r="A113" s="83">
         <v>112</v>
       </c>
@@ -32671,7 +32671,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('112','q_124', '1.BOTH CHOSE','1.AvcbvivB `yÕRb `yÕRb‡K cQ›` K‡iwQ‡jb','1','q_126');</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="25.5">
+    <row r="114" spans="1:7" ht="38.25">
       <c r="A114" s="83">
         <v>113</v>
       </c>
@@ -32695,7 +32695,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('113','q_124', '2.YOU CHOSE AND PARTNER AGREED','2.Avcwb cQ›` K‡iwQ‡jb Ges †m ivRx n‡qwQj','2','q_126');</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="25.5">
+    <row r="115" spans="1:7" ht="38.25">
       <c r="A115" s="83">
         <v>114</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('114','q_124', '3.YOUR FAMILY CHOSE AND YOU AGREED','3.cwiev‡ii cQ‡›` we‡q K‡iwQ‡jb Ges Avcbvi gZ wQj','3','');</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="25.5">
+    <row r="116" spans="1:7" ht="38.25">
       <c r="A116" s="83">
         <v>115</v>
       </c>
@@ -32737,7 +32737,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('115','q_124', '4.YOUR FAMILY CHOSE AND YOU DID NOT AGREED ','4.cwievi cQ›` K‡iwQj wKš‘ Avcbvi gZwQj bv','4','');</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="25.5">
+    <row r="117" spans="1:7" ht="38.25">
       <c r="A117" s="83">
         <v>116</v>
       </c>
@@ -32758,7 +32758,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('116','q_124', '5.PARTNER CHOSE  AND YOU AGREED','5.†m cQ›` K‡iwQj Ges Avcbvi  gZ wQj','5','');</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="25.5">
+    <row r="118" spans="1:7" ht="38.25">
       <c r="A118" s="83">
         <v>117</v>
       </c>
@@ -32779,7 +32779,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('117','q_124', '6.PARTNER CHOSE  AND YOU DID NOT AGREED','6.†m cQ›` K‡iwQj Ges Avcbvi  gZ wQjbv','6','');</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="25.5">
+    <row r="119" spans="1:7" ht="38.25">
       <c r="A119" s="83">
         <v>118</v>
       </c>
@@ -32866,7 +32866,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('121','q_125', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="25.5">
+    <row r="123" spans="1:7" ht="38.25">
       <c r="A123" s="83">
         <v>122</v>
       </c>
@@ -32887,7 +32887,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('122','q_125', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="25.5">
+    <row r="124" spans="1:7" ht="38.25">
       <c r="A124" s="83">
         <v>123</v>
       </c>
@@ -32908,7 +32908,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('123','q_126', '1.YES, DURING MARRIAGE ','1.nu¨v, we‡qi mgq','1','');</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="25.5">
+    <row r="125" spans="1:7" ht="38.25">
       <c r="A125" s="83">
         <v>124</v>
       </c>
@@ -32929,7 +32929,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('124','q_126', '2.YES, AFTER MARRIAGE ','2.nu¨v, we‡qi c‡i','2','');</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="25.5">
+    <row r="126" spans="1:7" ht="38.25">
       <c r="A126" s="83">
         <v>125</v>
       </c>
@@ -32995,7 +32995,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('127','q_128', '1.ALL PAID','1.meUzKz cwi‡kvwaZ','1','');</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="25.5">
+    <row r="129" spans="1:7" ht="38.25">
       <c r="A129" s="83">
         <v>128</v>
       </c>
@@ -33016,7 +33016,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('128','q_128', '2.PARTIALLY PAID','2.AvswkK cwi‡kvwaZ','2','');</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="25.5">
+    <row r="130" spans="1:7" ht="38.25">
       <c r="A130" s="83">
         <v>129</v>
       </c>
@@ -33037,7 +33037,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('129','q_128', '3.NONE PAID','3.GK`gB cwi‡kvwaZ bq','3','');</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="25.5">
+    <row r="131" spans="1:7" ht="38.25">
       <c r="A131" s="83">
         <v>130</v>
       </c>
@@ -33058,7 +33058,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('130','q_128', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwb bv / g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="25.5">
+    <row r="132" spans="1:7" ht="38.25">
       <c r="A132" s="83">
         <v>131</v>
       </c>
@@ -33184,7 +33184,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('136','q_201', '5.VERY POOR','5.Lye Lvivc','5','');</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="25.5">
+    <row r="138" spans="1:7" ht="38.25">
       <c r="A138" s="83">
         <v>137</v>
       </c>
@@ -33205,7 +33205,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('137','q_202', '1.NO PROBLEMS','1.†Kvb mgm¨v †bB','1','');</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="25.5">
+    <row r="139" spans="1:7" ht="38.25">
       <c r="A139" s="83">
         <v>138</v>
       </c>
@@ -33226,7 +33226,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('138','q_202', '2.VERY FEW PROBLEMS','2.Lye Aí mgm¨v Av‡Q','2','');</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="25.5">
+    <row r="140" spans="1:7" ht="38.25">
       <c r="A140" s="83">
         <v>139</v>
       </c>
@@ -33247,7 +33247,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('139','q_202', '3.SOME PROBLEMS','3.wKQzUv mgm¨v Av‡Q','3','');</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="25.5">
+    <row r="141" spans="1:7" ht="38.25">
       <c r="A141" s="83">
         <v>140</v>
       </c>
@@ -33268,7 +33268,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('140','q_202', '4.MANY PROBLEMS','4.A‡bK mgm¨v Av‡Q','4','');</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="25.5">
+    <row r="142" spans="1:7" ht="38.25">
       <c r="A142" s="83">
         <v>141</v>
       </c>
@@ -33289,7 +33289,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('141','q_203', '1.NO PROBLEMS','1.†Kvb mgm¨v †bB','1','');</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="25.5">
+    <row r="143" spans="1:7" ht="38.25">
       <c r="A143" s="83">
         <v>142</v>
       </c>
@@ -33310,7 +33310,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('142','q_203', '2.VERY FEW PROBLEMS','2.Lye Aí mgm¨v Av‡Q','2','');</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="25.5">
+    <row r="144" spans="1:7" ht="38.25">
       <c r="A144" s="83">
         <v>143</v>
       </c>
@@ -33331,7 +33331,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('143','q_203', '3.SOME PROBLEMS','3.wKQzUv mgm¨v Av‡Q','3','');</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="25.5">
+    <row r="145" spans="1:7" ht="38.25">
       <c r="A145" s="83">
         <v>144</v>
       </c>
@@ -33352,7 +33352,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('144','q_203', '4.MANY PROBLEMS','4.A‡bK mgm¨v Av‡Q','4','');</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="25.5">
+    <row r="146" spans="1:7" ht="38.25">
       <c r="A146" s="83">
         <v>145</v>
       </c>
@@ -33373,7 +33373,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('145','q_204', '1.NO PAIN OR DISCOMFORT','1.†Kvb e¨v_v/ Amyweav †bB','1','');</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="25.5">
+    <row r="147" spans="1:7" ht="38.25">
       <c r="A147" s="83">
         <v>146</v>
       </c>
@@ -33394,7 +33394,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('146','q_204', '2.SLIGHT PAIN OR DISCOMFORT','2.Lye Aí e¨v_v ','2','');</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="25.5">
+    <row r="148" spans="1:7" ht="38.25">
       <c r="A148" s="83">
         <v>147</v>
       </c>
@@ -33415,7 +33415,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('147','q_204', '3.MODERATE PAIN OR DISCOMFORT','3.†gvUv‡gvwU e¨v_v','3','');</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="25.5">
+    <row r="149" spans="1:7" ht="38.25">
       <c r="A149" s="83">
         <v>148</v>
       </c>
@@ -33436,7 +33436,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('148','q_204', '4.SEVERE PAIN OR DISCOMFORT','4.‡ekx e¨v_v','4','');</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="25.5">
+    <row r="150" spans="1:7" ht="38.25">
       <c r="A150" s="83">
         <v>149</v>
       </c>
@@ -33457,7 +33457,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('149','q_204', '5.EXTREME PAIN OR DISCOMFORT','5.A‡bK ‡ekx e¨v_v','5','');</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="25.5">
+    <row r="151" spans="1:7" ht="38.25">
       <c r="A151" s="83">
         <v>150</v>
       </c>
@@ -33478,7 +33478,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('150','q_205', '1.NO PROBLEMS','1.†Kvb mgm¨v †bB','1','');</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="25.5">
+    <row r="152" spans="1:7" ht="38.25">
       <c r="A152" s="83">
         <v>151</v>
       </c>
@@ -33499,7 +33499,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('151','q_205', '2.VERY FEW PROBLEMS','2.Lye Aí mgm¨v Av‡Q','2','');</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="25.5">
+    <row r="153" spans="1:7" ht="38.25">
       <c r="A153" s="83">
         <v>152</v>
       </c>
@@ -33520,7 +33520,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('152','q_205', '3.SOME PROBLEMS','3.wKQzUv mgm¨v Av‡Q','3','');</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="25.5">
+    <row r="154" spans="1:7" ht="38.25">
       <c r="A154" s="83">
         <v>153</v>
       </c>
@@ -33541,7 +33541,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('153','q_205', '4.MANY PROBLEMS','4.A‡bK mgm¨v Av‡Q','4','');</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="25.5">
+    <row r="155" spans="1:7" ht="38.25">
       <c r="A155" s="83">
         <v>154</v>
       </c>
@@ -33562,7 +33562,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('154','q_206_3', 'c.To help you not feel sad or depressed?','M.Avcbvi gb Lvivc ev welbœZv Kgv‡bvi Rb¨?','0','');</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="25.5">
+    <row r="156" spans="1:7" ht="38.25">
       <c r="A156" s="83">
         <v>155</v>
       </c>
@@ -33583,7 +33583,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('155','q_206_2', 'b.To relieve pain?','_.e¨v_v Kgv‡bvi Rb¨?','0','');</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="25.5">
+    <row r="157" spans="1:7" ht="38.25">
       <c r="A157" s="83">
         <v>156</v>
       </c>
@@ -33625,7 +33625,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('157','q_206_Options', '1.NO','1.bv','1','');</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="25.5">
+    <row r="159" spans="1:7" ht="38.25">
       <c r="A159" s="83">
         <v>158</v>
       </c>
@@ -33646,7 +33646,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('158','q_206_Options', '2.ONCE OR TWICE','2.GK wK `yB evi','2','');</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="25.5">
+    <row r="160" spans="1:7" ht="38.25">
       <c r="A160" s="83">
         <v>159</v>
       </c>
@@ -33667,7 +33667,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('159','q_206_Options', '3.A FEW TIMES','3.†ek K‡qK evi','3','');</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="25.5">
+    <row r="161" spans="1:7" ht="38.25">
       <c r="A161" s="83">
         <v>160</v>
       </c>
@@ -33688,7 +33688,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('160','q_206_Options', '4.MANY TIMES','4.A‡bK evi','4','');</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="25.5">
+    <row r="162" spans="1:7" ht="38.25">
       <c r="A162" s="83">
         <v>161</v>
       </c>
@@ -33730,7 +33730,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('162','q_207_2', 'B.DOCTOR','L.Wv³vi','1','');</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="25.5">
+    <row r="164" spans="1:7" ht="38.25">
       <c r="A164" s="83">
         <v>163</v>
       </c>
@@ -33751,7 +33751,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('163','q_207_3', 'C.NURSE/ MIDWIFE ','M.bvm©/ avÎx','1','');</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="25.5">
+    <row r="165" spans="1:7" ht="38.25">
       <c r="A165" s="83">
         <v>164</v>
       </c>
@@ -33772,7 +33772,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('164','q_207_4', 'D.Govt. Health Worker','N.miKvix  ¯^v¯’¨Kgx©','1','');</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="25.5">
+    <row r="166" spans="1:7" ht="38.25">
       <c r="A166" s="83">
         <v>165</v>
       </c>
@@ -33835,7 +33835,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('167','q_207_7', 'G.PHARMACIST','Q.Jla we‡µZv','1','');</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="25.5">
+    <row r="169" spans="1:7" ht="38.25">
       <c r="A169" s="83">
         <v>168</v>
       </c>
@@ -33856,7 +33856,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('168','q_207_8', 'H.TRADITIONAL HEALER','R.mbvZb wPwKrmK','1','');</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="25.5">
+    <row r="170" spans="1:7" ht="38.25">
       <c r="A170" s="83">
         <v>169</v>
       </c>
@@ -34102,7 +34102,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('179','q_309', '2.NO','2.bv','2','msg401');</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="25.5">
+    <row r="181" spans="1:7" ht="38.25">
       <c r="A181" s="83">
         <v>180</v>
       </c>
@@ -34189,7 +34189,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('183','q_310', '3.INJECTABLES','3.Bb‡RKkb','3','');</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="25.5">
+    <row r="185" spans="1:7" ht="38.25">
       <c r="A185" s="83">
         <v>184</v>
       </c>
@@ -34231,7 +34231,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('185','q_310', '5.IUCD','5.AvBBDwmwW','5','');</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="25.5">
+    <row r="187" spans="1:7" ht="38.25">
       <c r="A187" s="83">
         <v>186</v>
       </c>
@@ -34252,7 +34252,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('186','q_310', '6.FEMALE STERILIZATION','6.eÜ¨vZ¡KiY (gwnjv)','6','');</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="25.5">
+    <row r="188" spans="1:7" ht="38.25">
       <c r="A188" s="83">
         <v>187</v>
       </c>
@@ -34273,7 +34273,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('187','q_310', '7.MALE STERILIZATION','7eÜ¨vZ¡KiY (cyi“l)','7','');</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="25.5">
+    <row r="189" spans="1:7" ht="38.25">
       <c r="A189" s="83">
         <v>188</v>
       </c>
@@ -34294,7 +34294,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('188','q_310', '8.CALENDAR/MUCUS METHOD','8.K¨v‡jÛvi/wgDKvm c×wZ','8','');</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="25.5">
+    <row r="190" spans="1:7" ht="38.25">
       <c r="A190" s="83">
         <v>189</v>
       </c>
@@ -34360,7 +34360,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('191','q_310', '96.OTHER','96.Ab¨vb¨','96','q_310_other');</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="25.5">
+    <row r="193" spans="1:7" ht="38.25">
       <c r="A193" s="83">
         <v>192</v>
       </c>
@@ -34381,7 +34381,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('192','q_401', '1.BECOME PREGNANT THEN','1.ZLb Mf©aviY †P‡qwQjvg','1','');</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="25.5">
+    <row r="194" spans="1:7" ht="38.25">
       <c r="A194" s="83">
         <v>193</v>
       </c>
@@ -34402,7 +34402,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('193','q_401', '2.WAIT UNTIL LATER','2.†`ix Ki‡Z †P‡qwQjvg','2','');</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="25.5">
+    <row r="195" spans="1:7" ht="38.25">
       <c r="A195" s="83">
         <v>194</v>
       </c>
@@ -34423,7 +34423,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('194','q_401', '3.NOT WANT CHILDREN','3.ev”Pv wb‡Z PvBwb','3','');</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="25.5">
+    <row r="196" spans="1:7" ht="38.25">
       <c r="A196" s="83">
         <v>195</v>
       </c>
@@ -34444,7 +34444,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('195','q_401', '4.NOT MIND EITHER WAY','4.‡KvbUv‡ZB AvcwË wQj bv','4','');</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="25.5">
+    <row r="197" spans="1:7" ht="38.25">
       <c r="A197" s="83">
         <v>196</v>
       </c>
@@ -34465,7 +34465,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('196','q_402', '1.BECOME PREGNANT THEN','1.ZLb Mf©aviY †P‡qwQ‡jb','1','');</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="25.5">
+    <row r="198" spans="1:7" ht="38.25">
       <c r="A198" s="83">
         <v>197</v>
       </c>
@@ -34486,7 +34486,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('197','q_402', '2.WAIT UNTIL LATER','2.†`ix Ki‡Z †P‡qwQ‡jb','2','');</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="25.5">
+    <row r="199" spans="1:7" ht="38.25">
       <c r="A199" s="83">
         <v>198</v>
       </c>
@@ -34507,7 +34507,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('198','q_402', '3.NOT WANT CHILDREN','3.ev”Pv wb‡Z Pvb wb','3','');</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="25.5">
+    <row r="200" spans="1:7" ht="38.25">
       <c r="A200" s="83">
         <v>199</v>
       </c>
@@ -34591,7 +34591,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('202','q_403_2', '2.DOCTOR','2.Wv³vi','1','');</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="25.5">
+    <row r="204" spans="1:7" ht="51">
       <c r="A204" s="83">
         <v>203</v>
       </c>
@@ -34612,7 +34612,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('203','q_403_3', '3.OBSTETRICIAN/GYNAECOLOGIST','3.avÎxwe`¨vwekvi`/¯¿x†ivMwekvi`','1','');</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="25.5">
+    <row r="205" spans="1:7" ht="38.25">
       <c r="A205" s="83">
         <v>204</v>
       </c>
@@ -34633,7 +34633,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('204','q_403_4', '4.NURSE/MIDWIFE','4.†mweKv/avÎx','1','');</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="25.5">
+    <row r="206" spans="1:7" ht="38.25">
       <c r="A206" s="83">
         <v>205</v>
       </c>
@@ -34654,7 +34654,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('205','q_403_5', '5.FWV/CSBA/SBA/MA/SACMO','5.miKvix ¯^v¯’¨ Kg©x','1','');</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="25.5">
+    <row r="207" spans="1:7" ht="38.25">
       <c r="A207" s="83">
         <v>206</v>
       </c>
@@ -34675,7 +34675,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('206','q_403_6', '6.NGO HEALTH WORKER ','6.Gb.wR.I.¯^v¯’¨ Kg©x','1','');</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="25.5">
+    <row r="208" spans="1:7" ht="38.25">
       <c r="A208" s="83">
         <v>207</v>
       </c>
@@ -34696,7 +34696,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('207','q_403_7', '7.VILLAGE DOCTOR','7.cjøx wPwKrmK','1','');</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="25.5">
+    <row r="209" spans="1:7" ht="38.25">
       <c r="A209" s="83">
         <v>208</v>
       </c>
@@ -34762,7 +34762,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('210','q_404', '1.STOP','1.evav w`‡qwQ‡jb','1','');</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="25.5">
+    <row r="212" spans="1:7" ht="38.25">
       <c r="A212" s="83">
         <v>211</v>
       </c>
@@ -34783,7 +34783,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('211','q_404', '2.ENCOURAGE','2.DrmvwnZ K‡iwQ‡jb','2','');</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="25.5">
+    <row r="213" spans="1:7" ht="38.25">
       <c r="A213" s="83">
         <v>212</v>
       </c>
@@ -34846,7 +34846,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('214','q_405', '2.DAUGHTER','2.†g‡q','2','');</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="25.5">
+    <row r="216" spans="1:7" ht="38.25">
       <c r="A216" s="83">
         <v>215</v>
       </c>
@@ -34930,7 +34930,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('218','q_406', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="25.5">
+    <row r="220" spans="1:7" ht="38.25">
       <c r="A220" s="83">
         <v>219</v>
       </c>
@@ -34951,7 +34951,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('219','q_406', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="25.5">
+    <row r="221" spans="1:7" ht="38.25">
       <c r="A221" s="83">
         <v>220</v>
       </c>
@@ -34993,7 +34993,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('221','q_410_4', 'd.TIMID','N.Lye fxZz A_ev jvRyK?','0','');</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="25.5">
+    <row r="223" spans="1:7" ht="38.25">
       <c r="A223" s="83">
         <v>222</v>
       </c>
@@ -35014,7 +35014,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('222','q_410_3', 'c.WET BED','M.cÖvqB weQvbvq cÖmªve K‡i wfwR‡q ‡`q?','0','');</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="25.5">
+    <row r="224" spans="1:7" ht="38.25">
       <c r="A224" s="83">
         <v>223</v>
       </c>
@@ -35035,7 +35035,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('223','q_410_2', 'b.SUCK THUMB','L.e„×v½yjx/Ab¨ †Kv‡bv Av½yj †Pv‡l?','0','');</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="25.5">
+    <row r="225" spans="1:7" ht="38.25">
       <c r="A225" s="83">
         <v>224</v>
       </c>
@@ -36298,7 +36298,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('283','q_531', '2.NO','2.bv','2','q_535');</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="25.5">
+    <row r="285" spans="1:7" ht="38.25">
       <c r="A285" s="83">
         <v>284</v>
       </c>
@@ -36364,7 +36364,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('286','q_532', '2.NO','2.bv','2','q_535');</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="25.5">
+    <row r="288" spans="1:7" ht="38.25">
       <c r="A288" s="83">
         <v>287</v>
       </c>
@@ -36427,7 +36427,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('289','q_533', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="25.5">
+    <row r="291" spans="1:7" ht="38.25">
       <c r="A291" s="83">
         <v>290</v>
       </c>
@@ -36490,7 +36490,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('292','q_534', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="25.5">
+    <row r="294" spans="1:7" ht="38.25">
       <c r="A294" s="83">
         <v>293</v>
       </c>
@@ -36595,7 +36595,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('297','q_601', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="25.5">
+    <row r="299" spans="1:7" ht="38.25">
       <c r="A299" s="83">
         <v>298</v>
       </c>
@@ -36616,7 +36616,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('298','q_601', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="25.5">
+    <row r="300" spans="1:7" ht="38.25">
       <c r="A300" s="83">
         <v>299</v>
       </c>
@@ -36679,7 +36679,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('301','q_602', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="25.5">
+    <row r="303" spans="1:7" ht="38.25">
       <c r="A303" s="83">
         <v>302</v>
       </c>
@@ -36700,7 +36700,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('302','q_602', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="25.5">
+    <row r="304" spans="1:7" ht="38.25">
       <c r="A304" s="83">
         <v>303</v>
       </c>
@@ -36763,7 +36763,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('305','q_603', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="25.5">
+    <row r="307" spans="1:7" ht="38.25">
       <c r="A307" s="83">
         <v>306</v>
       </c>
@@ -36784,7 +36784,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('306','q_603', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="25.5">
+    <row r="308" spans="1:7" ht="38.25">
       <c r="A308" s="83">
         <v>307</v>
       </c>
@@ -36847,7 +36847,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('309','q_604', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="25.5">
+    <row r="311" spans="1:7" ht="38.25">
       <c r="A311" s="83">
         <v>310</v>
       </c>
@@ -36868,7 +36868,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('310','q_604', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="25.5">
+    <row r="312" spans="1:7" ht="38.25">
       <c r="A312" s="83">
         <v>311</v>
       </c>
@@ -36931,7 +36931,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('313','q_605', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="25.5">
+    <row r="315" spans="1:7" ht="38.25">
       <c r="A315" s="83">
         <v>314</v>
       </c>
@@ -36952,7 +36952,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('314','q_605', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="25.5">
+    <row r="316" spans="1:7" ht="38.25">
       <c r="A316" s="83">
         <v>315</v>
       </c>
@@ -37015,7 +37015,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('317','q_606', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="25.5">
+    <row r="319" spans="1:7" ht="38.25">
       <c r="A319" s="83">
         <v>318</v>
       </c>
@@ -37036,7 +37036,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('318','q_606', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="25.5">
+    <row r="320" spans="1:7" ht="38.25">
       <c r="A320" s="83">
         <v>319</v>
       </c>
@@ -37099,7 +37099,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('321','q_607', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="25.5">
+    <row r="323" spans="1:7" ht="38.25">
       <c r="A323" s="83">
         <v>322</v>
       </c>
@@ -37120,7 +37120,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('322','q_607', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="25.5">
+    <row r="324" spans="1:7" ht="38.25">
       <c r="A324" s="83">
         <v>323</v>
       </c>
@@ -37183,7 +37183,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('325','q_608', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="25.5">
+    <row r="327" spans="1:7" ht="38.25">
       <c r="A327" s="83">
         <v>326</v>
       </c>
@@ -37204,7 +37204,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('326','q_608', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="25.5">
+    <row r="328" spans="1:7" ht="38.25">
       <c r="A328" s="83">
         <v>327</v>
       </c>
@@ -37267,7 +37267,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('329','q_609', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="25.5">
+    <row r="331" spans="1:7" ht="38.25">
       <c r="A331" s="83">
         <v>330</v>
       </c>
@@ -37288,7 +37288,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('330','q_609', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="25.5">
+    <row r="332" spans="1:7" ht="38.25">
       <c r="A332" s="83">
         <v>331</v>
       </c>
@@ -37351,7 +37351,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('333','q_610', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="25.5">
+    <row r="335" spans="1:7" ht="38.25">
       <c r="A335" s="83">
         <v>334</v>
       </c>
@@ -37372,7 +37372,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('334','q_610', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="25.5">
+    <row r="336" spans="1:7" ht="38.25">
       <c r="A336" s="83">
         <v>335</v>
       </c>
@@ -37435,7 +37435,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('337','q_611', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="25.5">
+    <row r="339" spans="1:7" ht="38.25">
       <c r="A339" s="83">
         <v>338</v>
       </c>
@@ -37456,7 +37456,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('338','q_611', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="25.5">
+    <row r="340" spans="1:7" ht="38.25">
       <c r="A340" s="83">
         <v>339</v>
       </c>
@@ -37519,7 +37519,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('341','q_612', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="25.5">
+    <row r="343" spans="1:7" ht="38.25">
       <c r="A343" s="83">
         <v>342</v>
       </c>
@@ -37540,7 +37540,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('342','q_612', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="25.5">
+    <row r="344" spans="1:7" ht="38.25">
       <c r="A344" s="83">
         <v>343</v>
       </c>
@@ -37603,7 +37603,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('345','q_613', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="25.5">
+    <row r="347" spans="1:7" ht="38.25">
       <c r="A347" s="83">
         <v>346</v>
       </c>
@@ -37624,7 +37624,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('346','q_613', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="25.5">
+    <row r="348" spans="1:7" ht="38.25">
       <c r="A348" s="83">
         <v>347</v>
       </c>
@@ -37687,7 +37687,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('349','q_614', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="25.5">
+    <row r="351" spans="1:7" ht="38.25">
       <c r="A351" s="83">
         <v>350</v>
       </c>
@@ -37708,7 +37708,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('350','q_614', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="25.5">
+    <row r="352" spans="1:7" ht="38.25">
       <c r="A352" s="83">
         <v>351</v>
       </c>
@@ -37771,7 +37771,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('353','q_615', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="25.5">
+    <row r="355" spans="1:7" ht="38.25">
       <c r="A355" s="83">
         <v>354</v>
       </c>
@@ -37792,7 +37792,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('354','q_615', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="25.5">
+    <row r="356" spans="1:7" ht="38.25">
       <c r="A356" s="83">
         <v>355</v>
       </c>
@@ -37855,7 +37855,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('357','q_616', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="25.5">
+    <row r="359" spans="1:7" ht="38.25">
       <c r="A359" s="83">
         <v>358</v>
       </c>
@@ -37876,7 +37876,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('358','q_616', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="25.5">
+    <row r="360" spans="1:7" ht="38.25">
       <c r="A360" s="83">
         <v>359</v>
       </c>
@@ -37939,7 +37939,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('361','q_617', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="25.5">
+    <row r="363" spans="1:7" ht="38.25">
       <c r="A363" s="83">
         <v>362</v>
       </c>
@@ -37960,7 +37960,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('362','q_617', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="25.5">
+    <row r="364" spans="1:7" ht="38.25">
       <c r="A364" s="83">
         <v>363</v>
       </c>
@@ -38023,7 +38023,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('365','q_618', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="25.5">
+    <row r="367" spans="1:7" ht="38.25">
       <c r="A367" s="83">
         <v>366</v>
       </c>
@@ -38044,7 +38044,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('366','q_618', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="25.5">
+    <row r="368" spans="1:7" ht="38.25">
       <c r="A368" s="83">
         <v>367</v>
       </c>
@@ -38107,7 +38107,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('369','q_619', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="25.5">
+    <row r="371" spans="1:7" ht="38.25">
       <c r="A371" s="83">
         <v>370</v>
       </c>
@@ -38128,7 +38128,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('370','q_619', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="25.5">
+    <row r="372" spans="1:7" ht="38.25">
       <c r="A372" s="83">
         <v>371</v>
       </c>
@@ -38204,7 +38204,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('374','q_620', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="25.5">
+    <row r="376" spans="1:7" ht="38.25">
       <c r="A376" s="83">
         <v>375</v>
       </c>
@@ -38225,7 +38225,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('375','q_620', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="25.5">
+    <row r="377" spans="1:7" ht="38.25">
       <c r="A377" s="83">
         <v>376</v>
       </c>
@@ -38267,7 +38267,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('377','q_621', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="379" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="379" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A379" s="83">
         <v>378</v>
       </c>
@@ -38309,7 +38309,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('379','q_621', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="25.5">
+    <row r="381" spans="1:7" ht="38.25">
       <c r="A381" s="83">
         <v>380</v>
       </c>
@@ -38330,7 +38330,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('380','q_621', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="25.5">
+    <row r="382" spans="1:7" ht="38.25">
       <c r="A382" s="83">
         <v>381</v>
       </c>
@@ -38372,7 +38372,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('382','q_622', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="384" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="384" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A384" s="83">
         <v>383</v>
       </c>
@@ -38414,7 +38414,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('384','q_622', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="25.5">
+    <row r="386" spans="1:7" ht="38.25">
       <c r="A386" s="83">
         <v>385</v>
       </c>
@@ -38435,7 +38435,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('385','q_622', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="25.5">
+    <row r="387" spans="1:7" ht="38.25">
       <c r="A387" s="83">
         <v>386</v>
       </c>
@@ -38477,7 +38477,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('387','q_623', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="389" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="389" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A389" s="83">
         <v>388</v>
       </c>
@@ -38519,7 +38519,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('389','q_623', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="25.5">
+    <row r="391" spans="1:7" ht="38.25">
       <c r="A391" s="83">
         <v>390</v>
       </c>
@@ -38540,7 +38540,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('390','q_623', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="25.5">
+    <row r="392" spans="1:7" ht="38.25">
       <c r="A392" s="83">
         <v>391</v>
       </c>
@@ -38582,7 +38582,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('392','q_624', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="394" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="394" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A394" s="83">
         <v>393</v>
       </c>
@@ -38624,7 +38624,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('394','q_624', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="25.5">
+    <row r="396" spans="1:7" ht="38.25">
       <c r="A396" s="83">
         <v>395</v>
       </c>
@@ -38645,7 +38645,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('395','q_624', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="25.5">
+    <row r="397" spans="1:7" ht="38.25">
       <c r="A397" s="83">
         <v>396</v>
       </c>
@@ -38687,7 +38687,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('397','q_625', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="399" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="399" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A399" s="83">
         <v>398</v>
       </c>
@@ -38729,7 +38729,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('399','q_625', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="25.5">
+    <row r="401" spans="1:7" ht="38.25">
       <c r="A401" s="83">
         <v>400</v>
       </c>
@@ -38750,7 +38750,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('400','q_625', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="25.5">
+    <row r="402" spans="1:7" ht="38.25">
       <c r="A402" s="83">
         <v>401</v>
       </c>
@@ -38792,7 +38792,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('402','q_626', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="404" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="404" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A404" s="83">
         <v>403</v>
       </c>
@@ -38834,7 +38834,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('404','q_626', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="25.5">
+    <row r="406" spans="1:7" ht="38.25">
       <c r="A406" s="83">
         <v>405</v>
       </c>
@@ -38855,7 +38855,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('405','q_626', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="25.5">
+    <row r="407" spans="1:7" ht="38.25">
       <c r="A407" s="83">
         <v>406</v>
       </c>
@@ -38897,7 +38897,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('407','q_627', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="409" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="409" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A409" s="83">
         <v>408</v>
       </c>
@@ -38939,7 +38939,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('409','q_627', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="25.5">
+    <row r="411" spans="1:7" ht="38.25">
       <c r="A411" s="83">
         <v>410</v>
       </c>
@@ -38960,7 +38960,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('410','q_627', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="25.5">
+    <row r="412" spans="1:7" ht="38.25">
       <c r="A412" s="83">
         <v>411</v>
       </c>
@@ -39002,7 +39002,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('412','q_628', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="414" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A414" s="83">
         <v>413</v>
       </c>
@@ -39044,7 +39044,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('414','q_628', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="25.5">
+    <row r="416" spans="1:7" ht="38.25">
       <c r="A416" s="83">
         <v>415</v>
       </c>
@@ -39065,7 +39065,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('415','q_628', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="25.5">
+    <row r="417" spans="1:7" ht="38.25">
       <c r="A417" s="83">
         <v>416</v>
       </c>
@@ -39107,7 +39107,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('417','q_629', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="419" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="419" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A419" s="83">
         <v>418</v>
       </c>
@@ -39149,7 +39149,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('419','q_629', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="25.5">
+    <row r="421" spans="1:7" ht="38.25">
       <c r="A421" s="83">
         <v>420</v>
       </c>
@@ -39170,7 +39170,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('420','q_629', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="25.5">
+    <row r="422" spans="1:7" ht="38.25">
       <c r="A422" s="83">
         <v>421</v>
       </c>
@@ -39212,7 +39212,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('422','q_630', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="424" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="424" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A424" s="83">
         <v>423</v>
       </c>
@@ -39254,7 +39254,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('424','q_630', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="25.5">
+    <row r="426" spans="1:7" ht="38.25">
       <c r="A426" s="83">
         <v>425</v>
       </c>
@@ -39275,7 +39275,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('425','q_630', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="25.5">
+    <row r="427" spans="1:7" ht="38.25">
       <c r="A427" s="83">
         <v>426</v>
       </c>
@@ -39317,7 +39317,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('427','q_631', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="429" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="429" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A429" s="83">
         <v>428</v>
       </c>
@@ -39359,7 +39359,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('429','q_631', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="25.5">
+    <row r="431" spans="1:7" ht="38.25">
       <c r="A431" s="83">
         <v>430</v>
       </c>
@@ -39380,7 +39380,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('430','q_631', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="25.5">
+    <row r="432" spans="1:7" ht="38.25">
       <c r="A432" s="83">
         <v>431</v>
       </c>
@@ -39422,7 +39422,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('432','q_632', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="434" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="434" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A434" s="83">
         <v>433</v>
       </c>
@@ -39464,7 +39464,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('434','q_632', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="25.5">
+    <row r="436" spans="1:7" ht="38.25">
       <c r="A436" s="83">
         <v>435</v>
       </c>
@@ -39485,7 +39485,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('435','q_632', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="25.5">
+    <row r="437" spans="1:7" ht="38.25">
       <c r="A437" s="83">
         <v>436</v>
       </c>
@@ -39527,7 +39527,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('437','q_633', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="439" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="439" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A439" s="83">
         <v>438</v>
       </c>
@@ -39569,7 +39569,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('439','q_633', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="25.5">
+    <row r="441" spans="1:7" ht="38.25">
       <c r="A441" s="83">
         <v>440</v>
       </c>
@@ -39590,7 +39590,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('440','q_633', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="25.5">
+    <row r="442" spans="1:7" ht="38.25">
       <c r="A442" s="83">
         <v>441</v>
       </c>
@@ -39632,7 +39632,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('442','q_634', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="444" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="444" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A444" s="83">
         <v>443</v>
       </c>
@@ -39674,7 +39674,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('444','q_634', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="25.5">
+    <row r="446" spans="1:7" ht="38.25">
       <c r="A446" s="83">
         <v>445</v>
       </c>
@@ -39695,7 +39695,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('445','q_634', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="25.5">
+    <row r="447" spans="1:7" ht="38.25">
       <c r="A447" s="83">
         <v>446</v>
       </c>
@@ -39737,7 +39737,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('447','q_635', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="449" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="449" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A449" s="83">
         <v>448</v>
       </c>
@@ -39779,7 +39779,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('449','q_635', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="25.5">
+    <row r="451" spans="1:7" ht="38.25">
       <c r="A451" s="83">
         <v>450</v>
       </c>
@@ -39800,7 +39800,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('450','q_635', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="25.5">
+    <row r="452" spans="1:7" ht="38.25">
       <c r="A452" s="83">
         <v>451</v>
       </c>
@@ -39842,7 +39842,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('452','q_636', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="454" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="454" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A454" s="83">
         <v>453</v>
       </c>
@@ -39884,7 +39884,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('454','q_636', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="25.5">
+    <row r="456" spans="1:7" ht="38.25">
       <c r="A456" s="83">
         <v>455</v>
       </c>
@@ -39905,7 +39905,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('455','q_636', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="25.5">
+    <row r="457" spans="1:7" ht="38.25">
       <c r="A457" s="83">
         <v>456</v>
       </c>
@@ -39947,7 +39947,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('457','q_637', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="459" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="459" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A459" s="83">
         <v>458</v>
       </c>
@@ -39989,7 +39989,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('459','q_637', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="25.5">
+    <row r="461" spans="1:7" ht="38.25">
       <c r="A461" s="83">
         <v>460</v>
       </c>
@@ -40010,7 +40010,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('460','q_637', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="25.5">
+    <row r="462" spans="1:7" ht="38.25">
       <c r="A462" s="83">
         <v>461</v>
       </c>
@@ -40052,7 +40052,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('462','q_638', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="464" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="464" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A464" s="83">
         <v>463</v>
       </c>
@@ -40094,7 +40094,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('464','q_638', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="25.5">
+    <row r="466" spans="1:7" ht="38.25">
       <c r="A466" s="83">
         <v>465</v>
       </c>
@@ -40115,7 +40115,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('465','q_638', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="25.5">
+    <row r="467" spans="1:7" ht="38.25">
       <c r="A467" s="83">
         <v>466</v>
       </c>
@@ -40136,7 +40136,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('466','q_638', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="25.5">
+    <row r="468" spans="1:7" ht="38.25">
       <c r="A468" s="83">
         <v>467</v>
       </c>
@@ -40157,7 +40157,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('467','q_639_4', 'd) He mistreats her','N.Zvi ¯^vgx Lvivc AvPib K‡i','0','');</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="25.5">
+    <row r="469" spans="1:7" ht="38.25">
       <c r="A469" s="83">
         <v>468</v>
       </c>
@@ -40178,7 +40178,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('468','q_639_3', 'c) She is sick','M.¯¿x Amy¯’ _v‡K','0','');</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="25.5">
+    <row r="470" spans="1:7" ht="38.25">
       <c r="A470" s="83">
         <v>469</v>
       </c>
@@ -40199,7 +40199,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('469','q_639_2', 'b) He is drunk','L.Zvi ¯^vgx gvZvj Ae¯’vq _v‡K','0','');</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="25.5">
+    <row r="471" spans="1:7" ht="38.25">
       <c r="A471" s="83">
         <v>470</v>
       </c>
@@ -40304,7 +40304,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('474','q_703', '1.YES, SCHOOL','1.nu¨v, ¯‹z‡j','1','');</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="25.5">
+    <row r="476" spans="1:7" ht="38.25">
       <c r="A476" s="83">
         <v>475</v>
       </c>
@@ -40481,7 +40481,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('482','q_705', '3.MECHANIC','3.†gKvwbK','3','');</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="25.5">
+    <row r="484" spans="1:7" ht="38.25">
       <c r="A484" s="83">
         <v>483</v>
       </c>
@@ -40502,7 +40502,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('483','q_705', '4.BUS/TRUCK DRIVER','4.evm/ UªvK WªvBfvi','4','');</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="25.5">
+    <row r="485" spans="1:7" ht="38.25">
       <c r="A485" s="83">
         <v>484</v>
       </c>
@@ -40565,7 +40565,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('486','q_705', '7.HANDICRAFTS','7.KzwUi wkí','7','');</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="25.5">
+    <row r="488" spans="1:7" ht="38.25">
       <c r="A488" s="83">
         <v>487</v>
       </c>
@@ -40628,7 +40628,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('489','q_705', '10.DAILY LABOUR','10.w`bgRyi','10','');</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="25.5">
+    <row r="491" spans="1:7" ht="38.25">
       <c r="A491" s="83">
         <v>490</v>
       </c>
@@ -40670,7 +40670,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('491','q_705', '12.BIUSNESS (big)','12.eo e¨emv','12','');</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="25.5">
+    <row r="493" spans="1:7" ht="38.25">
       <c r="A493" s="83">
         <v>492</v>
       </c>
@@ -40691,7 +40691,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('492','q_705', '13.GOVT. SERVICE','13.miKvwi PvKzwi','13','');</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="25.5">
+    <row r="494" spans="1:7" ht="38.25">
       <c r="A494" s="83">
         <v>493</v>
       </c>
@@ -40733,7 +40733,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('494','q_705', '15.UNEMPLOYED','15.†eKvi','15','');</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="25.5">
+    <row r="496" spans="1:7" ht="38.25">
       <c r="A496" s="83">
         <v>495</v>
       </c>
@@ -40754,7 +40754,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('495','q_705', '16.GAEMENT WORKER','16.Mv‡g©›Um Kg©x','16','');</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="25.5">
+    <row r="497" spans="1:7" ht="38.25">
       <c r="A497" s="83">
         <v>496</v>
       </c>
@@ -40799,7 +40799,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('497','q_706', '1.EVERYDAY','1.cªwZw`b','1','');</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="25.5">
+    <row r="499" spans="1:7" ht="38.25">
       <c r="A499" s="83">
         <v>498</v>
       </c>
@@ -40820,7 +40820,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('498','q_706', '2.NEARLY EVERY DAY','2.cªvq cªwZw`b (mßv‡n 4-6 evi)','2','');</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="25.5">
+    <row r="500" spans="1:7" ht="38.25">
       <c r="A500" s="83">
         <v>499</v>
       </c>
@@ -40841,7 +40841,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('499','q_706', '3.1–3 times A WEEK','3.mßv‡n 1-3 evi','3','');</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="25.5">
+    <row r="501" spans="1:7" ht="38.25">
       <c r="A501" s="83">
         <v>500</v>
       </c>
@@ -40862,7 +40862,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('500','q_706', '4.1–3 TIMES IN A MONTH','4.gv‡m 1-3 evi','4','');</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="25.5">
+    <row r="502" spans="1:7" ht="38.25">
       <c r="A502" s="83">
         <v>501</v>
       </c>
@@ -40907,7 +40907,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('502','q_706', '6.NEVER ','6.KLbB bv','6','q_709');</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="25.5">
+    <row r="504" spans="1:7" ht="38.25">
       <c r="A504" s="83">
         <v>503</v>
       </c>
@@ -40931,7 +40931,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('503','q_706', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','q_709');</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="25.5">
+    <row r="505" spans="1:7" ht="38.25">
       <c r="A505" s="83">
         <v>504</v>
       </c>
@@ -41015,7 +41015,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('507','q_707', '3.ONCE A MONTH','3.cÖwZ gv‡m','3','');</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="25.5">
+    <row r="509" spans="1:7" ht="38.25">
       <c r="A509" s="83">
         <v>508</v>
       </c>
@@ -41057,7 +41057,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('509','q_707', '5.NEVER ','5.KLbB bv','5','');</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="25.5">
+    <row r="511" spans="1:7" ht="38.25">
       <c r="A511" s="83">
         <v>510</v>
       </c>
@@ -41078,7 +41078,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('510','q_707', '8.DON’T KNOW/DON’T REMEMBER ','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="25.5">
+    <row r="512" spans="1:7" ht="38.25">
       <c r="A512" s="83">
         <v>511</v>
       </c>
@@ -41099,7 +41099,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('511','q_707', '9.REFUSED/NO ANSWER','9.cÖZ¨vL¨vb/ DËi †bB','9','');</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="25.5">
+    <row r="513" spans="1:7" ht="38.25">
       <c r="A513" s="83">
         <v>512</v>
       </c>
@@ -41207,7 +41207,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('516','q_708_Options', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="25.5">
+    <row r="518" spans="1:7" ht="38.25">
       <c r="A518" s="83">
         <v>517</v>
       </c>
@@ -41228,7 +41228,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('517','q_709', '1.NEARLY EVERY DAY','1.cªvq cªwZw`b (mßv‡n 4-6 evi)','1','');</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="25.5">
+    <row r="519" spans="1:7" ht="38.25">
       <c r="A519" s="83">
         <v>518</v>
       </c>
@@ -41249,7 +41249,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('518','q_709', '2.1–3 times A WEEK','2.mßv‡n 1-3 evi','2','');</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="25.5">
+    <row r="520" spans="1:7" ht="38.25">
       <c r="A520" s="83">
         <v>519</v>
       </c>
@@ -41270,7 +41270,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('519','q_709', '3.1–3 TIMES IN A MONTH','3.gv‡m 1-3 evi','3','');</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="25.5">
+    <row r="521" spans="1:7" ht="38.25">
       <c r="A521" s="83">
         <v>520</v>
       </c>
@@ -41312,7 +41312,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('521','q_709', '5.NEVER ','5.KLbB bv','5','');</v>
       </c>
     </row>
-    <row r="523" spans="1:7" s="23" customFormat="1" ht="25.5">
+    <row r="523" spans="1:7" s="23" customFormat="1" ht="38.25">
       <c r="A523" s="83">
         <v>522</v>
       </c>
@@ -41333,7 +41333,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('522','q_709', '6.IN THE PAST, NOT NOW','6.Av‡M Ki‡Zv GLb K‡i bv','6','');</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="25.5">
+    <row r="524" spans="1:7" ht="38.25">
       <c r="A524" s="83">
         <v>523</v>
       </c>
@@ -41354,7 +41354,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('523','q_709', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="25.5">
+    <row r="525" spans="1:7" ht="38.25">
       <c r="A525" s="83">
         <v>524</v>
       </c>
@@ -41420,7 +41420,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('526','q_710', '2.NO','2.bv','2','q_712');</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="25.5">
+    <row r="528" spans="1:7" ht="38.25">
       <c r="A528" s="83">
         <v>527</v>
       </c>
@@ -41486,7 +41486,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('529','q_711', '2.ONCE OR TWICE','2.2/1 evi','2','');</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="25.5">
+    <row r="531" spans="1:7" ht="38.25">
       <c r="A531" s="83">
         <v>530</v>
       </c>
@@ -41507,7 +41507,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('530','q_711', '3.A FEW (3-5) TIMES','3.K‡qKevi (3-5 evi)','3','');</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="25.5">
+    <row r="532" spans="1:7" ht="38.25">
       <c r="A532" s="83">
         <v>531</v>
       </c>
@@ -41528,7 +41528,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('531','q_711', '4.MANY (MORE THAN 5) TIMES','4.A‡bKevi (5ev‡ii †ekx)','4','');</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="25.5">
+    <row r="533" spans="1:7" ht="38.25">
       <c r="A533" s="83">
         <v>532</v>
       </c>
@@ -41549,7 +41549,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('532','q_711', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB)','8','');</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="25.5">
+    <row r="534" spans="1:7" ht="38.25">
       <c r="A534" s="83">
         <v>533</v>
       </c>
@@ -41637,7 +41637,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('536','q_712', '3.MAY HAVE','3.n‡Z cv‡i','3','');</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="25.5">
+    <row r="538" spans="1:7" ht="38.25">
       <c r="A538" s="83">
         <v>537</v>
       </c>
@@ -41724,7 +41724,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('540','q_713', '3.MAY HAVE','3.n‡Z cv‡i','3','');</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="25.5">
+    <row r="542" spans="1:7" ht="38.25">
       <c r="A542" s="83">
         <v>541</v>
       </c>
@@ -41745,7 +41745,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('541','q_713', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="27">
+    <row r="543" spans="1:7" ht="38.25">
       <c r="A543" s="83">
         <v>542</v>
       </c>
@@ -41766,7 +41766,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('542','q_801_4', 'd.His worries or feelings','N.Avcbvi ¯^vgxi fvebv wPšÍv, Abyf‚wZ (myL-`ytL, fvj jvMv, g›` jvMv)','0','');</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="25.5">
+    <row r="544" spans="1:7" ht="38.25">
       <c r="A544" s="83">
         <v>543</v>
       </c>
@@ -41787,7 +41787,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('543','q_801_3', 'c.Your worries or feelings','M.Avcbvi fvebv wPšÍv, Abyf‚wZ (myL-`ytL, fvj jvMv, g›` jvMv) ','0','');</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="30">
+    <row r="545" spans="1:7" ht="38.25">
       <c r="A545" s="83">
         <v>544</v>
       </c>
@@ -41808,7 +41808,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('544','q_801_2', 'b.Things that happen to you during the day','L.mvivw`b Avcwb wK K‡i‡Qb','0','');</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="25.5">
+    <row r="546" spans="1:7" ht="38.25">
       <c r="A546" s="83">
         <v>545</v>
       </c>
@@ -41976,7 +41976,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('552','q_802', '4.OFTEN ','4.cÖvqB','4','');</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="45">
+    <row r="554" spans="1:7" ht="51">
       <c r="A554" s="83">
         <v>553</v>
       </c>
@@ -41997,7 +41997,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('553','q_803_7', 'g.Expects you to ask his permission before seeking health care for yourself','Q.Avkv K‡ib/Ki‡Zb †h Avcwb wb‡Ri wPwKrmv Kiv‡bvi Av‡M Zvi AbygwZ †b‡eb?','0','');</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="27">
+    <row r="555" spans="1:7" ht="51">
       <c r="A555" s="83">
         <v>554</v>
       </c>
@@ -42018,7 +42018,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('554','q_803_6', 'f.Is often suspicious that you are unfaithful','P.Ab¨ cyiæ‡li mv‡_ Avcbvi m¤úK© Av‡Q e‡j cÖvqB m‡›`n K‡ib/Ki‡Zb?','0','');</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="27">
+    <row r="556" spans="1:7" ht="51">
       <c r="A556" s="83">
         <v>555</v>
       </c>
@@ -42039,7 +42039,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('555','q_803_5', 'e.Gets angry if you speak with another man','O.Avcwb Ab¨ cyiæ‡li m‡½ K_v ej‡j­ Avcbvi ¯^vgx †i‡M hvb/‡h‡Zb?','0','');</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="27">
+    <row r="557" spans="1:7" ht="51">
       <c r="A557" s="83">
         <v>556</v>
       </c>
@@ -42060,7 +42060,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('556','q_803_4', 'd.Ignores you and treats you indifferently','N.Avcbv‡K cvËv †`b bv/AeÁv K‡ib ev Avcbvi e¨vcv‡i D`vmxb _v‡Kb / _vK‡Zb?','0','');</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="30">
+    <row r="558" spans="1:7" ht="51">
       <c r="A558" s="83">
         <v>557</v>
       </c>
@@ -42081,7 +42081,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('557','q_803_3', 'c.Insists on knowing where you are at all times','M.Avcwb KLb †Kv_vq _v‡Kb ev hvb Zv Rvbvi Rb¨ ‡RvivRywi K‡ib/Ki‡Zb?','0','');</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="27">
+    <row r="559" spans="1:7" ht="51">
       <c r="A559" s="83">
         <v>558</v>
       </c>
@@ -42102,7 +42102,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('558','q_803_2', 'b.Tries to restrict contact with your family of birth','L.Avcbvi Rb¥cwiev‡ii m‡½ †hvMv‡hv‡M evav w`‡Z †Póv K‡ib/Ki‡Zb?','0','');</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="27">
+    <row r="560" spans="1:7" ht="51">
       <c r="A560" s="83">
         <v>559</v>
       </c>
@@ -44681,7 +44681,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('674','q_808', '3.MANY TIMES','3.A‡bKevi','3','');</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="25.5">
+    <row r="676" spans="1:7" ht="38.25">
       <c r="A676" s="83">
         <v>675</v>
       </c>
@@ -44786,7 +44786,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('679','q_809', '4.&gt; 5TIMES ','4.5 ev‡ii †ekx','4','');</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="25.5">
+    <row r="681" spans="1:7" ht="38.25">
       <c r="A681" s="83">
         <v>680</v>
       </c>
@@ -44807,7 +44807,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('680','q_809', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="25.5">
+    <row r="682" spans="1:7" ht="38.25">
       <c r="A682" s="83">
         <v>681</v>
       </c>
@@ -44873,7 +44873,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('683','q_810', '2.NO','2.bv','2','q_812');</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="25.5">
+    <row r="685" spans="1:7" ht="38.25">
       <c r="A685" s="83">
         <v>684</v>
       </c>
@@ -44939,7 +44939,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('686','q_812', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="25.5">
+    <row r="688" spans="1:7" ht="38.25">
       <c r="A688" s="83">
         <v>687</v>
       </c>
@@ -44960,7 +44960,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('687','q_812', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="25.5">
+    <row r="689" spans="1:7" ht="38.25">
       <c r="A689" s="83">
         <v>688</v>
       </c>
@@ -45023,7 +45023,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('690','q_813_2', '2.HUSBAND ','2.¯^vgx','1','');</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="25.5">
+    <row r="692" spans="1:7" ht="38.25">
       <c r="A692" s="83">
         <v>691</v>
       </c>
@@ -45044,7 +45044,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('691','q_813_3', '3.PARENT IN LAWS','3.k¦ïi/ kvïwo','1','');</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="25.5">
+    <row r="693" spans="1:7" ht="38.25">
       <c r="A693" s="83">
         <v>692</v>
       </c>
@@ -45086,7 +45086,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('693','q_813_5', '5.NEIGHBOURS ','5.cÖwZ‡ekx','1','');</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="25.5">
+    <row r="695" spans="1:7" ht="38.25">
       <c r="A695" s="83">
         <v>694</v>
       </c>
@@ -45107,7 +45107,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('694','q_813_6', '6.STRENGERS ','6.AcwiwPZ †KD ','1','');</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="25.5">
+    <row r="696" spans="1:7" ht="38.25">
       <c r="A696" s="83">
         <v>695</v>
       </c>
@@ -45176,7 +45176,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('697','q_901', '2.NO','2.bv','2','q_904');</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="25.5">
+    <row r="699" spans="1:7" ht="38.25">
       <c r="A699" s="83">
         <v>698</v>
       </c>
@@ -45197,7 +45197,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('698','q_901', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="25.5">
+    <row r="700" spans="1:7" ht="38.25">
       <c r="A700" s="83">
         <v>699</v>
       </c>
@@ -45239,7 +45239,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('700','q_902_a', '1.ONCE/TWICE','1.GKevi/`yevi','1','');</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="25.5">
+    <row r="702" spans="1:7" ht="38.25">
       <c r="A702" s="83">
         <v>701</v>
       </c>
@@ -45260,7 +45260,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('701','q_902_a', '2.SEVERAL (3-5) TIMES','2.K‡qKevi/3-5 evi','2','');</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="25.5">
+    <row r="703" spans="1:7" ht="38.25">
       <c r="A703" s="83">
         <v>702</v>
       </c>
@@ -45281,7 +45281,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('702','q_902_a', '3.MANY (MORE THAN 5) TIMES','3.A‡bKevi/5 ev‡ii †ekx','3','');</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="25.5">
+    <row r="704" spans="1:7" ht="38.25">
       <c r="A704" s="83">
         <v>703</v>
       </c>
@@ -45302,7 +45302,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('703','q_902_a', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="25.5">
+    <row r="705" spans="1:7" ht="38.25">
       <c r="A705" s="83">
         <v>704</v>
       </c>
@@ -45365,7 +45365,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('706','q_902_b', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="25.5">
+    <row r="708" spans="1:7" ht="38.25">
       <c r="A708" s="83">
         <v>707</v>
       </c>
@@ -45386,7 +45386,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('707','q_902_b', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="25.5">
+    <row r="709" spans="1:7" ht="38.25">
       <c r="A709" s="83">
         <v>708</v>
       </c>
@@ -45407,7 +45407,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('708','q_902_b', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="25.5">
+    <row r="710" spans="1:7" ht="38.25">
       <c r="A710" s="83">
         <v>709</v>
       </c>
@@ -45431,7 +45431,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('709','q_903_10', '10.OTHER (specify)','10.Ab¨vb¨ (wbw`©ó Kiæb) ','0','q_903_0ther');</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="25.5">
+    <row r="711" spans="1:7" ht="38.25">
       <c r="A711" s="83">
         <v>710</v>
       </c>
@@ -45473,7 +45473,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('711','q_903_8', '8.BROKEN TEETH','8.`vuZ fv½v','0','');</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="25.5">
+    <row r="713" spans="1:7" ht="38.25">
       <c r="A713" s="83">
         <v>712</v>
       </c>
@@ -45494,7 +45494,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('712','q_903_7', '7.FRACTURES, BROKEN BONES','7.nvo  dvUv, fv½v','0','');</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="25.5">
+    <row r="714" spans="1:7" ht="38.25">
       <c r="A714" s="83">
         <v>713</v>
       </c>
@@ -45515,7 +45515,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('713','q_903_6', '6.BROKEN EARDRUM, EYE INJURIES','6.Kv‡bi c`©v dvUv, †Pv‡L RLg','0','');</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="30">
+    <row r="715" spans="1:7" ht="38.25">
       <c r="A715" s="83">
         <v>714</v>
       </c>
@@ -45557,7 +45557,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('715','q_903_4', '4.BURNS','4.†cvov','0','');</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="25.5">
+    <row r="717" spans="1:7" ht="38.25">
       <c r="A717" s="83">
         <v>716</v>
       </c>
@@ -45578,7 +45578,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('716','q_903_3', '3.SPRAINS, DISLOCATIONS','3.gPKvb, nv‡oi †Rvov Qz‡U hvIqv','0','');</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="25.5">
+    <row r="718" spans="1:7" ht="38.25">
       <c r="A718" s="83">
         <v>717</v>
       </c>
@@ -45599,7 +45599,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('717','q_903_2', '2.SCRATCH, ABRASION, BRUISES','2.dz‡j hvIqv, wQu‡o hvIqv, Kvjwk‡U cov','0','');</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="25.5">
+    <row r="719" spans="1:7" ht="38.25">
       <c r="A719" s="83">
         <v>718</v>
       </c>
@@ -45725,7 +45725,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('723','q_904', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="25.5">
+    <row r="725" spans="1:7" ht="38.25">
       <c r="A725" s="83">
         <v>724</v>
       </c>
@@ -45746,7 +45746,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('724','q_904', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="25.5">
+    <row r="726" spans="1:7" ht="38.25">
       <c r="A726" s="83">
         <v>725</v>
       </c>
@@ -45791,7 +45791,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('726','q_905_a', '1.YES ','1.nu¨v','1','q_905_a_time');</v>
       </c>
     </row>
-    <row r="728" spans="1:7" s="23" customFormat="1" ht="25.5">
+    <row r="728" spans="1:7" s="23" customFormat="1" ht="38.25">
       <c r="A728" s="83">
         <v>727</v>
       </c>
@@ -45812,7 +45812,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('727','q_905_a', '99.REFUSED/NO ANSWER','99.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','99','');</v>
       </c>
     </row>
-    <row r="729" spans="1:7" s="23" customFormat="1" ht="25.5">
+    <row r="729" spans="1:7" s="23" customFormat="1" ht="38.25">
       <c r="A729" s="83">
         <v>728</v>
       </c>
@@ -45878,7 +45878,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('730','q_905_b', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="25.5">
+    <row r="732" spans="1:7" ht="38.25">
       <c r="A732" s="83">
         <v>731</v>
       </c>
@@ -45899,7 +45899,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('731','q_905_b', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="25.5">
+    <row r="733" spans="1:7" ht="38.25">
       <c r="A733" s="83">
         <v>732</v>
       </c>
@@ -45989,7 +45989,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('735','q_907', '1.YES ','1.nu¨v','1','q_907Non');</v>
       </c>
     </row>
-    <row r="737" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="737" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A737" s="83">
         <v>736</v>
       </c>
@@ -46011,7 +46011,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('736','q_907', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="738" spans="1:7" s="57" customFormat="1" ht="25.5">
+    <row r="738" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A738" s="83">
         <v>737</v>
       </c>
@@ -46075,7 +46075,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('739','q_908', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="25.5">
+    <row r="741" spans="1:7" ht="38.25">
       <c r="A741" s="83">
         <v>740</v>
       </c>
@@ -46096,7 +46096,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('740','q_908', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="25.5">
+    <row r="742" spans="1:7" ht="38.25">
       <c r="A742" s="83">
         <v>741</v>
       </c>
@@ -46117,7 +46117,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('741','q_908', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="25.5">
+    <row r="743" spans="1:7" ht="38.25">
       <c r="A743" s="83">
         <v>742</v>
       </c>
@@ -46138,7 +46138,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('742','q_1001_1', '1.NO PARTICULAR REASON','1.†Kv‡bv we‡kl KviY QvovB','1','');</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="25.5">
+    <row r="744" spans="1:7" ht="38.25">
       <c r="A744" s="83">
         <v>743</v>
       </c>
@@ -46159,7 +46159,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('743','q_1001_2', '2.WHEN MAN DRUNK','2.gvZvj Ae¯’vq','1','');</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="25.5">
+    <row r="745" spans="1:7" ht="38.25">
       <c r="A745" s="83">
         <v>744</v>
       </c>
@@ -46180,7 +46180,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('744','q_1001_3', '3.MONEY PROBLEMS','3.UvKv cqmvi mgm¨v n‡j','1','');</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="25.5">
+    <row r="746" spans="1:7" ht="38.25">
       <c r="A746" s="83">
         <v>745</v>
       </c>
@@ -46201,7 +46201,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('745','q_1001_4', '4.DIFFICULTIES AT HIS WORK','4.Kv‡Ri mgm¨v n‡j','1','');</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="25.5">
+    <row r="747" spans="1:7" ht="38.25">
       <c r="A747" s="83">
         <v>746</v>
       </c>
@@ -46222,7 +46222,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('746','q_1001_5', '5.WHEN HE IS UNEMPLOYED','5.†eKvi Ae¯’vq','1','');</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="25.5">
+    <row r="748" spans="1:7" ht="38.25">
       <c r="A748" s="83">
         <v>747</v>
       </c>
@@ -46243,7 +46243,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('747','q_1001_6', '6.NO FOOD AT HOME','6.evox‡Z Lvevi bv _vK‡j','1','');</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="30">
+    <row r="749" spans="1:7" ht="38.25">
       <c r="A749" s="83">
         <v>748</v>
       </c>
@@ -46264,7 +46264,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('748','q_1001_7', '7.PROBLEMS WITH HIS OR HER FAMILY','7.¯^vgxi  ev Avgvi cwiev‡ii m‡½ †Mvjgvj n‡j','1','');</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="25.5">
+    <row r="750" spans="1:7" ht="38.25">
       <c r="A750" s="83">
         <v>749</v>
       </c>
@@ -46285,7 +46285,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('749','q_1001_8', '8.SHE IS PREGNANT','8.Avgvi †c‡U ev”Pv _vKv Kv‡j','1','');</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="25.5">
+    <row r="751" spans="1:7" ht="38.25">
       <c r="A751" s="83">
         <v>750</v>
       </c>
@@ -46306,7 +46306,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('750','q_1001_9', '9.HE IS JEALOUS OF HER','9.Cl©v †eva K‡i','1','');</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="25.5">
+    <row r="752" spans="1:7" ht="38.25">
       <c r="A752" s="83">
         <v>751</v>
       </c>
@@ -46327,7 +46327,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('751','q_1001_10', '10.SHE REFUSES SEX','10.kvixwiK †gjv‡gkv/ mnev‡m ivRx bv n‡j','1','');</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="25.5">
+    <row r="753" spans="1:7" ht="38.25">
       <c r="A753" s="83">
         <v>752</v>
       </c>
@@ -46348,7 +46348,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('752','q_1001_11', '11.SHE IS DISOBEDIENT','11.K_vi Aeva¨ n‡j','1','');</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="25.5">
+    <row r="754" spans="1:7" ht="38.25">
       <c r="A754" s="83">
         <v>753</v>
       </c>
@@ -46369,7 +46369,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('753','q_1001_12', '12.FOR DOWRY','12.‡hŠZz‡Ki Kvi‡b','1','');</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="30">
+    <row r="755" spans="1:7" ht="38.25">
       <c r="A755" s="83">
         <v>754</v>
       </c>
@@ -46456,7 +46456,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('757','q_1002', '3.SEVERAL TIMES','3.K‡qKevi','3','');</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="25.5">
+    <row r="759" spans="1:7" ht="38.25">
       <c r="A759" s="83">
         <v>758</v>
       </c>
@@ -46477,7 +46477,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('758','q_1002', '4.MANY TIMES/MOST OF THE TIME','4.A‡bKevi/‡ekxifvM mgq','4','');</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="25.5">
+    <row r="760" spans="1:7" ht="38.25">
       <c r="A760" s="83">
         <v>759</v>
       </c>
@@ -46498,7 +46498,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('759','q_1002', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="25.5">
+    <row r="761" spans="1:7" ht="38.25">
       <c r="A761" s="83">
         <v>760</v>
       </c>
@@ -46585,7 +46585,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('763','q_1003', '3.SEVERAL TIMES','3.K‡qKevi','3','');</v>
       </c>
     </row>
-    <row r="765" spans="1:7" ht="25.5">
+    <row r="765" spans="1:7" ht="38.25">
       <c r="A765" s="83">
         <v>764</v>
       </c>
@@ -46606,7 +46606,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('764','q_1003', '4.MANY TIMES/MOST OF THE TIME','4.A‡bKevi/‡ekxifvM mgq','4','');</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="25.5">
+    <row r="766" spans="1:7" ht="38.25">
       <c r="A766" s="83">
         <v>765</v>
       </c>
@@ -46627,7 +46627,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('765','q_1003', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="25.5">
+    <row r="767" spans="1:7" ht="38.25">
       <c r="A767" s="83">
         <v>766</v>
       </c>
@@ -46648,7 +46648,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('766','q_1003', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="25.5">
+    <row r="768" spans="1:7" ht="38.25">
       <c r="A768" s="83">
         <v>767</v>
       </c>
@@ -46669,7 +46669,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('767','q_1004', '1.NO CHANGE/NO EFFECT','1.wKQzB nqwb','1','');</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="25.5">
+    <row r="769" spans="1:7" ht="38.25">
       <c r="A769" s="83">
         <v>768</v>
       </c>
@@ -46690,7 +46690,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('768','q_1004', '2.VIOLENCE BECAME WORSE','2.wbh©vZb †e‡o wM‡qwQj','2','');</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="25.5">
+    <row r="770" spans="1:7" ht="38.25">
       <c r="A770" s="83">
         <v>769</v>
       </c>
@@ -46711,7 +46711,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('769','q_1004', '3.VIOLENCE BECAME LESS','3.wbh©vZb K‡g wM‡qwQj','3','');</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="25.5">
+    <row r="771" spans="1:7" ht="38.25">
       <c r="A771" s="83">
         <v>770</v>
       </c>
@@ -46732,7 +46732,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('770','q_1004', '4.VIOLENCE STOPPED','4.wbh©vZb eÜ n‡qwQ‡jv','4','');</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="30">
+    <row r="772" spans="1:7" ht="38.25">
       <c r="A772" s="83">
         <v>771</v>
       </c>
@@ -46756,7 +46756,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('771','q_1004', '5.OTHERS (SPECIFY)','5.Ab¨vb¨ (wbw`©ó Kiæb) ','5','q_1004_other');</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="25.5">
+    <row r="773" spans="1:7" ht="38.25">
       <c r="A773" s="83">
         <v>772</v>
       </c>
@@ -46840,7 +46840,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('775','q_1005', '3.A LOT','3.A‡bK','3','');</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="25.5">
+    <row r="777" spans="1:7" ht="38.25">
       <c r="A777" s="83">
         <v>776</v>
       </c>
@@ -46861,7 +46861,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('776','q_1005', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwb bv/ g‡b co‡Q bv','8','');</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="25.5">
+    <row r="778" spans="1:7" ht="38.25">
       <c r="A778" s="83">
         <v>777</v>
       </c>
@@ -46882,7 +46882,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('777','q_1005', '9.REFUSED/NO ANSWER','9.cÖZ¨vL¨vb/ DËi †bB','9','');</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="25.5">
+    <row r="779" spans="1:7" ht="38.25">
       <c r="A779" s="83">
         <v>778</v>
       </c>
@@ -46903,7 +46903,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('778','q_1006_1', '1.N/A (NO WORK FOR MONEY)','1.cÖ‡hvR¨ bq/ KvR K‡ib bv','1','');</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="25.5">
+    <row r="780" spans="1:7" ht="38.25">
       <c r="A780" s="83">
         <v>779</v>
       </c>
@@ -46924,7 +46924,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('779','q_1006_2', '2.WORK NOT DISRUPTED','2.mgm¨v K‡iwb','1','');</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="25.5">
+    <row r="781" spans="1:7" ht="38.25">
       <c r="A781" s="83">
         <v>780</v>
       </c>
@@ -46945,7 +46945,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('780','q_1006_3', '3.PARTNER INTERRUPTED WORK','3.¯^vgx Kv‡R evav w`‡q‡Q','1','');</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="25.5">
+    <row r="782" spans="1:7" ht="38.25">
       <c r="A782" s="83">
         <v>781</v>
       </c>
@@ -46966,7 +46966,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('781','q_1006_4', '4.UNABLE TO CONCENTRATE','4.g‡bv‡hv‡Mi Afve n‡q‡Q','1','');</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="31.5">
+    <row r="783" spans="1:7" ht="51">
       <c r="A783" s="83">
         <v>782</v>
       </c>
@@ -46987,7 +46987,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('782','q_1006_5', '5.UNABLE TO WORK/SICK LEAVE','5.kixi Lvivc _vKvi Rb¨ KvR Ki‡Z cv‡ibwb/QywU wb‡Z n‡q‡Q','1','');</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="30">
+    <row r="784" spans="1:7" ht="38.25">
       <c r="A784" s="83">
         <v>783</v>
       </c>
@@ -47008,7 +47008,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('783','q_1006_6', '6.LOST CONFIDENCE IN OWN ABILITY','6.wb‡Ri Dci wek¦vm nvwi‡q‡Qb','1','');</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="30">
+    <row r="785" spans="1:7" ht="38.25">
       <c r="A785" s="83">
         <v>784</v>
       </c>
@@ -47095,7 +47095,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('787','q_1007_3', '3.PARENTS','3.evev-gv','1','');</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="25.5">
+    <row r="789" spans="1:7" ht="38.25">
       <c r="A789" s="83">
         <v>788</v>
       </c>
@@ -47116,7 +47116,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('788','q_1007_4', '4.BROTHER OR SISTER','4.fvB-‡evb','1','');</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="25.5">
+    <row r="790" spans="1:7" ht="38.25">
       <c r="A790" s="83">
         <v>789</v>
       </c>
@@ -47137,7 +47137,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('789','q_1007_5', '5.UNCLE OR AUNT','5.PvPv-PvPx/gvgv-gvgx/dzcv-dzcy/Lvjv-Lvjy','1','');</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="25.5">
+    <row r="791" spans="1:7" ht="38.25">
       <c r="A791" s="83">
         <v>790</v>
       </c>
@@ -47221,7 +47221,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('793','q_1007_9', '9.POLICE','9.cywjk','1','');</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="25.5">
+    <row r="795" spans="1:7" ht="38.25">
       <c r="A795" s="83">
         <v>794</v>
       </c>
@@ -47242,7 +47242,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('794','q_1007_10', '10.DOCTOR/HEALTH WORKER','10.Wv³vi/¯^v¯’¨Kgx','1','');</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="25.5">
+    <row r="796" spans="1:7" ht="38.25">
       <c r="A796" s="83">
         <v>795</v>
       </c>
@@ -47263,7 +47263,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('795','q_1007_11', '11.PRIEST/RELIGIOUS LEADER','11.†gŠjex/cy‡ivwnZ','1','');</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="25.5">
+    <row r="797" spans="1:7" ht="38.25">
       <c r="A797" s="83">
         <v>796</v>
       </c>
@@ -47284,7 +47284,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('796','q_1007_12', '12.NGO/WOMEN’S ORGANIZATION','12.Gb. wR. I / gwnjv ms¯’v','1','');</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="25.5">
+    <row r="798" spans="1:7" ht="38.25">
       <c r="A798" s="83">
         <v>797</v>
       </c>
@@ -47305,7 +47305,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('797','q_1007_13', '13.LOCAL LEADER','13.¯’vbxq †bZv','1','');</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="30">
+    <row r="799" spans="1:7" ht="38.25">
       <c r="A799" s="83">
         <v>798</v>
       </c>
@@ -47392,7 +47392,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('801','q_1008_3', '3.PARENTS','3.evev-gv','1','');</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="25.5">
+    <row r="803" spans="1:7" ht="38.25">
       <c r="A803" s="83">
         <v>802</v>
       </c>
@@ -47413,7 +47413,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('802','q_1008_4', '4.BROTHER OR SISTER','4.fvB-‡evb','1','');</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="25.5">
+    <row r="804" spans="1:7" ht="38.25">
       <c r="A804" s="83">
         <v>803</v>
       </c>
@@ -47434,7 +47434,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('803','q_1008_5', '5.UNCLE OR AUNT','5.PvPv-PvPx/gvgv-gvgx/dzcv-dzcy/Lvjv-Lvjy','1','');</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="25.5">
+    <row r="805" spans="1:7" ht="38.25">
       <c r="A805" s="83">
         <v>804</v>
       </c>
@@ -47518,7 +47518,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('807','q_1008_9', '9.POLICE','9.cywjk','1','');</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="25.5">
+    <row r="809" spans="1:7" ht="38.25">
       <c r="A809" s="83">
         <v>808</v>
       </c>
@@ -47539,7 +47539,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('808','q_1008_10', '10.DOCTOR/HEALTH WORKER','10.Wv³vi/¯^v¯’¨Kgx','1','');</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="25.5">
+    <row r="810" spans="1:7" ht="38.25">
       <c r="A810" s="83">
         <v>809</v>
       </c>
@@ -47560,7 +47560,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('809','q_1008_11', '11.PRIEST/RELIGIOUS LEADER','11.†gŠjex/cy‡ivwnZ','1','');</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="25.5">
+    <row r="811" spans="1:7" ht="38.25">
       <c r="A811" s="83">
         <v>810</v>
       </c>
@@ -47581,7 +47581,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('810','q_1008_12', '12.NGO/WOMEN’S ORGANIZATION','12.Gb. wR. I / gwnjv ms¯’v','1','');</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="25.5">
+    <row r="812" spans="1:7" ht="38.25">
       <c r="A812" s="83">
         <v>811</v>
       </c>
@@ -47602,7 +47602,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('811','q_1008_13', '13.LOCAL LEADER','13.¯’vbxq †bZv','1','');</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="30">
+    <row r="813" spans="1:7" ht="38.25">
       <c r="A813" s="83">
         <v>812</v>
       </c>
@@ -48521,7 +48521,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('852','q_1009_x_sat', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="25.5">
+    <row r="854" spans="1:7" ht="38.25">
       <c r="A854" s="83">
         <v>853</v>
       </c>
@@ -48543,7 +48543,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('853','q_1010_1', '1.ENCOURAGED BY FRIENDS/FAMILY','1.eÜzz-evÜe/cwievi Drmvn †`qvq','1','');</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="25.5">
+    <row r="855" spans="1:7" ht="38.25">
       <c r="A855" s="83">
         <v>854</v>
       </c>
@@ -48565,7 +48565,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('854','q_1010_2', '2.COULD NOT ENDURE MORE','2.Avi mn¨ Kiv hvw”Qj bv','1','');</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="25.5">
+    <row r="856" spans="1:7" ht="38.25">
       <c r="A856" s="83">
         <v>855</v>
       </c>
@@ -48586,7 +48586,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('855','q_1010_3', '3.BADLY INJURED','3.gvivZ¥Kfv‡e AvnZ nIqvq','1','');</v>
       </c>
     </row>
-    <row r="857" spans="1:7" ht="30">
+    <row r="857" spans="1:7" ht="38.25">
       <c r="A857" s="83">
         <v>856</v>
       </c>
@@ -48607,7 +48607,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('856','q_1010_4', '4.HE THREATENED OR TRIED TO KILL HER','4.¯^vgx Ly‡bi ûgwK w`‡q‡Q ev Lyb Kivi †Póv K‡i‡Q','1','');</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="25.5">
+    <row r="858" spans="1:7" ht="38.25">
       <c r="A858" s="83">
         <v>857</v>
       </c>
@@ -48628,7 +48628,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('857','q_1010_5', '5.HE THREATENED OR HIT CHILDREN','5.¯^vgx ev”Pv‡`i gvievi ûgwK w`‡q‡Q ev †g‡i‡Q','1','');</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="25.5">
+    <row r="859" spans="1:7" ht="38.25">
       <c r="A859" s="83">
         <v>858</v>
       </c>
@@ -48649,7 +48649,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('858','q_1010_6', '6.SAW THAT CHILDREN SUFFERING','6.ev”Pv‡`i Kó †`‡L','1','');</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="25.5">
+    <row r="860" spans="1:7" ht="38.25">
       <c r="A860" s="83">
         <v>859</v>
       </c>
@@ -48670,7 +48670,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('859','q_1010_7', '7.THROWN OUT OF THE HOME','7.evox †_‡K Zvwo‡q †`Iqvq','1','');</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="25.5">
+    <row r="861" spans="1:7" ht="38.25">
       <c r="A861" s="83">
         <v>860</v>
       </c>
@@ -48691,7 +48691,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('860','q_1010_8', '8.AFRAID SHE WOULD KILL HIM','8.¯^vgx‡K Lyb K‡i †dj‡Z cv‡ib GB f‡q','1','');</v>
       </c>
     </row>
-    <row r="862" spans="1:7" ht="30">
+    <row r="862" spans="1:7" ht="38.25">
       <c r="A862" s="83">
         <v>861</v>
       </c>
@@ -48715,7 +48715,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('861','q_1010_9', '9. OTHER(specify)','9.Ab¨vb¨ (D‡jøL Kiæb)','1','q_1010_other');</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="25.5">
+    <row r="863" spans="1:7" ht="38.25">
       <c r="A863" s="83">
         <v>862</v>
       </c>
@@ -48757,7 +48757,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('863','q_1011_2', '2.FEAR OF THREATS/CONSEQUENCES/MORE VIOLENCE','2.ûgwKi f‡q, Ab¨vb¨ ¶wZi K_v †f‡e,AZ¨vPvi †e‡o hvIqvi f‡q','1','');</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="25.5">
+    <row r="865" spans="1:7" ht="38.25">
       <c r="A865" s="83">
         <v>864</v>
       </c>
@@ -48778,7 +48778,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('864','q_1011_3', '3.VIOLENCE NORMAL/NOT SERIOUS ','3.G ai‡bi wbh©vZb †Zv ¯^vfvweK/GUv ¸iæZi bq','1','');</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="31.5">
+    <row r="866" spans="1:7" ht="38.25">
       <c r="A866" s="83">
         <v>865</v>
       </c>
@@ -48799,7 +48799,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('865','q_1011_4', '4.BELIEVED OR WOULD BE BLAMED','4.j¾vq/f‡q †h †KD wek¦vm Ki‡e bv ev †`vlv‡ivc Ki‡e','1','');</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="31.5">
+    <row r="867" spans="1:7" ht="51">
       <c r="A867" s="83">
         <v>866</v>
       </c>
@@ -48820,7 +48820,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('866','q_1011_5', '5.BELIEVED NOT HELP/KNOW OTHER WOMEN NOT HELPED','5.‡Kvb jvf n‡e bv †f‡e/Ab¨ gwnjviv ‡Kvb DcKvi cvq bvB †`‡L','1','');</v>
       </c>
     </row>
-    <row r="868" spans="1:7" ht="30">
+    <row r="868" spans="1:7" ht="38.25">
       <c r="A868" s="83">
         <v>867</v>
       </c>
@@ -48841,7 +48841,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('867','q_1011_6', '6.AFRAID WOULD END RELATIONSHIP','6.m¤úK© †kl n‡q hv‡e  GB f‡q','1','');</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="25.5">
+    <row r="869" spans="1:7" ht="38.25">
       <c r="A869" s="83">
         <v>868</v>
       </c>
@@ -48862,7 +48862,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('868','q_1011_7', '7.AFRAID WOULD LOSE CHILDREN','7.ev”Pv nvivevi f‡q','1','');</v>
       </c>
     </row>
-    <row r="870" spans="1:7" ht="25.5">
+    <row r="870" spans="1:7" ht="38.25">
       <c r="A870" s="83">
         <v>869</v>
       </c>
@@ -48883,7 +48883,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('869','q_1011_8', '8.BRING BAD NAME TO FAMILY','8.cwiev‡ii e`bv‡gi f‡q','1','');</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="30">
+    <row r="871" spans="1:7" ht="38.25">
       <c r="A871" s="83">
         <v>870</v>
       </c>
@@ -48907,7 +48907,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('870','q_1011_9', '9. Any other problems, specify.','9.Ab¨vb¨ (D‡jøL Kiæb)','1','q_1011_other');</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="25.5">
+    <row r="872" spans="1:7" ht="38.25">
       <c r="A872" s="83">
         <v>871</v>
       </c>
@@ -48949,7 +48949,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('872','q_1012_2', '2.FAMILY','2.cwievi','1','');</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="25.5">
+    <row r="874" spans="1:7" ht="38.25">
       <c r="A874" s="83">
         <v>873</v>
       </c>
@@ -48970,7 +48970,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('873','q_1012_3', '3.HER MOTHER','3.wb‡Ri gv†qi KvQ †_‡K','1','');</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="25.5">
+    <row r="875" spans="1:7" ht="38.25">
       <c r="A875" s="83">
         <v>874</v>
       </c>
@@ -48991,7 +48991,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('874','q_1012_4', '4.HIS MOTHER','4.¯^vgxi gv‡qi KvQ †_‡K','1','');</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="25.5">
+    <row r="876" spans="1:7" ht="38.25">
       <c r="A876" s="83">
         <v>875</v>
       </c>
@@ -49033,7 +49033,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('876','q_1012_6', '6.POLICE','6.cywjk','1','');</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="25.5">
+    <row r="878" spans="1:7" ht="38.25">
       <c r="A878" s="83">
         <v>877</v>
       </c>
@@ -49075,7 +49075,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('878','q_1012_8', '8.NGO','8.Gb.wR.I','1','');</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="30">
+    <row r="880" spans="1:7" ht="38.25">
       <c r="A880" s="83">
         <v>879</v>
       </c>
@@ -49171,7 +49171,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('882','q_1013', '97.N/A','97.cÖ‡hvR¨ bq','97','msg1101');</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="25.5">
+    <row r="884" spans="1:7" ht="38.25">
       <c r="A884" s="83">
         <v>883</v>
       </c>
@@ -49193,7 +49193,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('883','q_1014_1', '1.ENCOURAGED BY FRIENDS/FAMILY','1.eÜzz-evÜe/cwievi Drmvn †`qvq','1','');</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="25.5">
+    <row r="885" spans="1:7" ht="38.25">
       <c r="A885" s="83">
         <v>884</v>
       </c>
@@ -49215,7 +49215,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('884','q_1014_2', '2.COULD NOT ENDURE MORE','2.Avi mn¨ Kiv hvw”Qj bv','1','');</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="25.5">
+    <row r="886" spans="1:7" ht="38.25">
       <c r="A886" s="83">
         <v>885</v>
       </c>
@@ -49237,7 +49237,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('885','q_1014_3', '3.BADLY INJURED','3.gvivZ¥Kfv‡e AvnZ nIqvq','1','');</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="30">
+    <row r="887" spans="1:7" ht="38.25">
       <c r="A887" s="83">
         <v>886</v>
       </c>
@@ -49259,7 +49259,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('886','q_1014_4', '4.HE THREATENED OR TRIED TO KILL HER','4.¯^vgx Ly‡bi ûgwK w`‡q‡Q ev Lyb Kivi †Póv K‡i‡Q','1','');</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="25.5">
+    <row r="888" spans="1:7" ht="38.25">
       <c r="A888" s="83">
         <v>887</v>
       </c>
@@ -49281,7 +49281,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('887','q_1014_5', '5.HE THREATENED OR HIT CHILDREN','5.¯^vgx ev”Pv‡`i gvievi ûgwK w`‡q‡Q ev †g‡i‡Q','1','');</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="25.5">
+    <row r="889" spans="1:7" ht="38.25">
       <c r="A889" s="83">
         <v>888</v>
       </c>
@@ -49303,7 +49303,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('888','q_1014_6', '6.SAW THAT CHILDREN SUFFERING','6.ev”Pv‡`i Kó †`‡L','1','');</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="25.5">
+    <row r="890" spans="1:7" ht="38.25">
       <c r="A890" s="83">
         <v>889</v>
       </c>
@@ -49325,7 +49325,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('889','q_1014_7', '7.THROWN OUT OF THE HOME','7.evox †_‡K Zvwo‡q †`Iqvq','1','');</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="25.5">
+    <row r="891" spans="1:7" ht="38.25">
       <c r="A891" s="83">
         <v>890</v>
       </c>
@@ -49347,7 +49347,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('890','q_1014_8', '8.AFRAID SHE WOULD KILL HIM','8.¯^vgx‡K Lyb K‡i †dj‡Z cv‡ib GB f‡q','1','');</v>
       </c>
     </row>
-    <row r="892" spans="1:7" ht="30">
+    <row r="892" spans="1:7" ht="38.25">
       <c r="A892" s="83">
         <v>891</v>
       </c>
@@ -49371,7 +49371,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('891','q_1014_9', '9. OTHER(specify)','9.Ab¨vb¨ (D‡jøL Kiæb)','1','q_1014_other');</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="25.5">
+    <row r="893" spans="1:7" ht="38.25">
       <c r="A893" s="83">
         <v>892</v>
       </c>
@@ -49392,7 +49392,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('892','q_1015', '1.HER RELATIVES','1.wb‡Ri AvZ¥xq-¯^R‡bi Kv‡Q','1','');</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="25.5">
+    <row r="894" spans="1:7" ht="38.25">
       <c r="A894" s="83">
         <v>893</v>
       </c>
@@ -49413,7 +49413,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('893','q_1015', '2.HIS RELATIVES','2.¯^vgxi AvZ¥xq-¯^R‡bi Kv‡Q','2','');</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="25.5">
+    <row r="895" spans="1:7" ht="38.25">
       <c r="A895" s="83">
         <v>894</v>
       </c>
@@ -49434,7 +49434,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('894','q_1015', '3.HER FRIENDS/NEIGHBOURS','3.Avcbvi eÜz-evÜe/cvov cokxi Kv‡Q','3','');</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="25.5">
+    <row r="896" spans="1:7" ht="38.25">
       <c r="A896" s="83">
         <v>895</v>
       </c>
@@ -49476,7 +49476,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('896','q_1015', '5.STREET','5.iv¯Ívq','5','');</v>
       </c>
     </row>
-    <row r="898" spans="1:7" ht="25.5">
+    <row r="898" spans="1:7" ht="38.25">
       <c r="A898" s="83">
         <v>897</v>
       </c>
@@ -49518,7 +49518,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('898','q_1015', '7.SHELTER','7.Avkªq †K‡›`ª/m`‡b','7','');</v>
       </c>
     </row>
-    <row r="900" spans="1:7" ht="30">
+    <row r="900" spans="1:7" ht="38.25">
       <c r="A900" s="83">
         <v>899</v>
       </c>
@@ -49542,7 +49542,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('899','q_1015', '9. OTHER(specify)','9.Ab¨vb¨ (D‡jøL Kiæb)','96','q_1015_other');</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="25.5">
+    <row r="901" spans="1:7" ht="38.25">
       <c r="A901" s="83">
         <v>900</v>
       </c>
@@ -49566,7 +49566,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('900','q_1016', '1.NUMBER OF DAYS ','1.w`‡bi msL¨v ','1','q_1016_day');</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="30">
+    <row r="902" spans="1:7" ht="38.25">
       <c r="A902" s="83">
         <v>901</v>
       </c>
@@ -49590,7 +49590,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('901','q_1016', '2.NUMBER OF MONTHS ','2.gv‡mi msL¨v','2','q_1016_month');</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="30">
+    <row r="903" spans="1:7" ht="38.25">
       <c r="A903" s="83">
         <v>902</v>
       </c>
@@ -49614,7 +49614,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('902','q_1016', '3.LEFT PARTNER/DID NOT RETURN/NOT WITH PARTNER ','3.‡dir Av‡mbwb','3','msg1101');</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="25.5">
+    <row r="904" spans="1:7" ht="38.25">
       <c r="A904" s="83">
         <v>903</v>
       </c>
@@ -49635,7 +49635,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('903','q_1017_1', '1.DIDN’T WANT TO LEAVE CHILDREN','1.ev”Pv‡`i †Q‡o _vK‡Z Pvbwb','1','');</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="25.5">
+    <row r="905" spans="1:7" ht="38.25">
       <c r="A905" s="83">
         <v>904</v>
       </c>
@@ -49656,7 +49656,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('904','q_1017_2', '2.SANCTITY OF MARRIAGE','2.we‡q cweÎ eÜb','1','');</v>
       </c>
     </row>
-    <row r="906" spans="1:7" ht="30">
+    <row r="906" spans="1:7" ht="38.25">
       <c r="A906" s="83">
         <v>905</v>
       </c>
@@ -49677,7 +49677,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('905','q_1017_3', '3.FOR SAKE OF FAMILY/CHILDREN (FAMILY HONOUR)','3.msmvi i¶vi Rb¨','1','');</v>
       </c>
     </row>
-    <row r="907" spans="1:7" ht="25.5">
+    <row r="907" spans="1:7" ht="38.25">
       <c r="A907" s="83">
         <v>906</v>
       </c>
@@ -49698,7 +49698,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('906','q_1017_4', '4.COULDN’T SUPPORT CHILDREN','4.ev”Pv‡`i jvjb cvjb Ki‡Z bv cvivq','1','');</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="25.5">
+    <row r="908" spans="1:7" ht="38.25">
       <c r="A908" s="83">
         <v>907</v>
       </c>
@@ -49719,7 +49719,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('907','q_1017_5', '5.LOVED HIM','5.¯^vgx‡K fvjev‡mb','1','');</v>
       </c>
     </row>
-    <row r="909" spans="1:7" ht="25.5">
+    <row r="909" spans="1:7" ht="38.25">
       <c r="A909" s="83">
         <v>908</v>
       </c>
@@ -49740,7 +49740,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('908','q_1017_6', '6.HE ASKED HER TO GO BACK','6.¯^vgx †diZ Avm‡Z e‡j‡Q','1','');</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="25.5">
+    <row r="910" spans="1:7" ht="38.25">
       <c r="A910" s="83">
         <v>909</v>
       </c>
@@ -49761,7 +49761,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('909','q_1017_7', '7.FAMILY SAID TO RETURN','7.cwievi †diZ Avm‡Z e‡j‡Q','1','');</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="25.5">
+    <row r="911" spans="1:7" ht="38.25">
       <c r="A911" s="83">
         <v>910</v>
       </c>
@@ -49782,7 +49782,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('910','q_1017_8', '8.FORGAVE HIM','8.¯^vgx‡K ¶gv K‡i w`‡q‡Qb','1','');</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="25.5">
+    <row r="912" spans="1:7" ht="38.25">
       <c r="A912" s="83">
         <v>911</v>
       </c>
@@ -49803,7 +49803,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('911','q_1017_9', '9.THOUGHT HE WOULD CHANGE','9.¯^vgx e`jv‡e †f‡e','1','');</v>
       </c>
     </row>
-    <row r="913" spans="1:7" ht="25.5">
+    <row r="913" spans="1:7" ht="38.25">
       <c r="A913" s="83">
         <v>912</v>
       </c>
@@ -49824,7 +49824,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('912','q_1017_10', '10.THREATENED HER/CHILDREN','10.Avcbv‡K ev mšÍvb‡`i ûgwK †`qvq','1','');</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="30">
+    <row r="914" spans="1:7" ht="51">
       <c r="A914" s="83">
         <v>913</v>
       </c>
@@ -49845,7 +49845,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('913','q_1017_11', '11.COULD NOT STAY THERE (WHERE SHE WENT)','11.†hLv‡b wM‡qwQ‡jb †mLv‡b _vK‡Z bv cvivq','1','');</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="30">
+    <row r="915" spans="1:7" ht="38.25">
       <c r="A915" s="83">
         <v>914</v>
       </c>
@@ -49866,7 +49866,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('914','q_1017_12', '12.VIOLENCE NORMAL/NOT SERIOUS ','12.G ai‡bi wbh©vZb †Zv ¯^vfvweK/GUv ¸iæZi bq','1','');</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="30">
+    <row r="916" spans="1:7" ht="38.25">
       <c r="A916" s="83">
         <v>915</v>
       </c>
@@ -49890,7 +49890,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('915','q_1017_13', '13. OTHER(specify)','13.Ab¨vb¨ (D‡jøL Kiæb)','1','q_1017_other');</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="25.5">
+    <row r="917" spans="1:7" ht="38.25">
       <c r="A917" s="83">
         <v>916</v>
       </c>
@@ -49912,7 +49912,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('916','q_1018_1', '1.DIDN’T WANT TO LEAVE CHILDREN','1.ev”Pv‡`i †Q‡o _vK‡Z Pvbwb','1','');</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="25.5">
+    <row r="918" spans="1:7" ht="38.25">
       <c r="A918" s="83">
         <v>917</v>
       </c>
@@ -49956,7 +49956,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('918','q_1018_3', '3.FOR SAKE OF FAMILY/CHILDREN(FAMILY HONOUR)','3.msmvi i¶vi Rb¨','1','');</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="25.5">
+    <row r="920" spans="1:7" ht="38.25">
       <c r="A920" s="83">
         <v>919</v>
       </c>
@@ -49978,7 +49978,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('919','q_1018_4', '4.COULDN’T SUPPORT CHILDREN','4.ev”Pv‡`i jvjb cvjb Ki‡Z bv cvivq','1','');</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="25.5">
+    <row r="921" spans="1:7" ht="38.25">
       <c r="A921" s="83">
         <v>920</v>
       </c>
@@ -50000,7 +50000,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('920','q_1018_5', '5.LOVED HIM','5.¯^vgx‡K fvjev‡mb','1','');</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="25.5">
+    <row r="922" spans="1:7" ht="38.25">
       <c r="A922" s="83">
         <v>921</v>
       </c>
@@ -50022,7 +50022,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('921','q_1018_6', '6.HE ASKED HER TO GO BACK','6.¯^vgx †diZ Avm‡Z e‡j‡Q','1','');</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="25.5">
+    <row r="923" spans="1:7" ht="38.25">
       <c r="A923" s="83">
         <v>922</v>
       </c>
@@ -50044,7 +50044,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('922','q_1018_7', '7.FAMILY SAID TO RETURN','7.cwievi †diZ Avm‡Z e‡j‡Q','1','');</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="25.5">
+    <row r="924" spans="1:7" ht="38.25">
       <c r="A924" s="83">
         <v>923</v>
       </c>
@@ -50066,7 +50066,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('923','q_1018_8', '8.FORGAVE HIM','8.¯^vgx‡K ¶gv K‡i w`‡q‡Qb','1','');</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="25.5">
+    <row r="925" spans="1:7" ht="38.25">
       <c r="A925" s="83">
         <v>924</v>
       </c>
@@ -50088,7 +50088,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('924','q_1018_9', '9.THOUGHT HE WOULD CHANGE','9.¯^vgx e`jv‡e †f‡e','1','');</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="25.5">
+    <row r="926" spans="1:7" ht="38.25">
       <c r="A926" s="83">
         <v>925</v>
       </c>
@@ -50110,7 +50110,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('925','q_1018_10', '10.THREATENED HER/CHILDREN','10.Avcbv‡K ev mšÍvb‡`i ûgwK †`qvq','1','');</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="30">
+    <row r="927" spans="1:7" ht="51">
       <c r="A927" s="83">
         <v>926</v>
       </c>
@@ -50132,7 +50132,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('926','q_1018_11', '11.COULD NOT STAY THERE (WHERE SHE WENT)','11.†hLv‡b wM‡qwQ‡jb †mLv‡b _vK‡Z bv cvivq','1','');</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="30">
+    <row r="928" spans="1:7" ht="38.25">
       <c r="A928" s="83">
         <v>927</v>
       </c>
@@ -50154,7 +50154,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('927','q_1018_12', '12.VIOLENCE NORMAL/NOT SERIOUS ','12.G ai‡bi wbh©vZb †Zv ¯^vfvweK/GUv ¸iæZi bq','1','');</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="30">
+    <row r="929" spans="1:7" ht="38.25">
       <c r="A929" s="83">
         <v>928</v>
       </c>
@@ -50626,7 +50626,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('948','q_1101_d_12', '8.DK','8.Rvwbbv','8','');</v>
       </c>
     </row>
-    <row r="950" spans="1:7" ht="25.5">
+    <row r="950" spans="1:7" ht="38.25">
       <c r="A950" s="83">
         <v>949</v>
       </c>
@@ -50650,7 +50650,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('949','q_1102_17', '17. OTHER(specify)','17.Ab¨vb¨ (D‡jøL Kiæb)','17','q_1102_other');</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="25.5">
+    <row r="951" spans="1:7" ht="38.25">
       <c r="A951" s="83">
         <v>950</v>
       </c>
@@ -50671,7 +50671,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('950','q_1102_16', '16.POLICE/ SOLDIER','16.cywjk/‰mb¨','16','');</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="25.5">
+    <row r="952" spans="1:7" ht="38.25">
       <c r="A952" s="83">
         <v>951</v>
       </c>
@@ -50692,7 +50692,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('951','q_1102_15', '15.PRIEST/RELIGIOUS LEADER','15.†gŠjex/cy‡ivwnZ','15','');</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="25.5">
+    <row r="953" spans="1:7" ht="38.25">
       <c r="A953" s="83">
         <v>952</v>
       </c>
@@ -50734,7 +50734,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('953','q_1102_13', '13.TEACHER ','13.wk¶K','13','');</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="25.5">
+    <row r="955" spans="1:7" ht="38.25">
       <c r="A955" s="83">
         <v>954</v>
       </c>
@@ -50755,7 +50755,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('954','q_1102_12', '12.COMPLETE STRANGER','12.AcwiwPZ e¨w³','12','');</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="25.5">
+    <row r="956" spans="1:7" ht="38.25">
       <c r="A956" s="83">
         <v>955</v>
       </c>
@@ -50776,7 +50776,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('955','q_1102_11', '11.RECENT ACQUAINTANCE','11.Aí cwiwPZ †KD','11','');</v>
       </c>
     </row>
-    <row r="957" spans="1:7" ht="25.5">
+    <row r="957" spans="1:7" ht="38.25">
       <c r="A957" s="83">
         <v>956</v>
       </c>
@@ -50797,7 +50797,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('956','q_1102_10', '10.FRIENDS ACQUAINTANCE','10.eÜz/evÜex','10','');</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="25.5">
+    <row r="958" spans="1:7" ht="38.25">
       <c r="A958" s="83">
         <v>957</v>
       </c>
@@ -50839,7 +50839,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('958','q_1102_8', '8.NEIGHBOUR','8.cªwZ‡ekx','8','');</v>
       </c>
     </row>
-    <row r="960" spans="1:7" ht="25.5">
+    <row r="960" spans="1:7" ht="38.25">
       <c r="A960" s="83">
         <v>959</v>
       </c>
@@ -50860,7 +50860,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('959','q_1102_7', '7.FAMILY MALE FREIND ','7.cwiev‡ii cyiæl eÜ','7','');</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="25.5">
+    <row r="961" spans="1:7" ht="38.25">
       <c r="A961" s="83">
         <v>960</v>
       </c>
@@ -50881,7 +50881,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('960','q_1102_6', '6.OTHER RELATIVE','6.Ab¨ AvZ¥xq','6','');</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="25.5">
+    <row r="962" spans="1:7" ht="38.25">
       <c r="A962" s="83">
         <v>961</v>
       </c>
@@ -50902,7 +50902,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('961','q_1102_5', '5.COUSIN','5.PvPv‡Zv, gvgv‡Zv, dzdv‡Zv, Lvjv‡Zv fvB','5','');</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="25.5">
+    <row r="963" spans="1:7" ht="38.25">
       <c r="A963" s="83">
         <v>962</v>
       </c>
@@ -50923,7 +50923,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('962','q_1102_4', '4.OTHER FAMILY MEMBER','4.cwiev‡ii Ab¨ m`m¨','4','');</v>
       </c>
     </row>
-    <row r="964" spans="1:7" ht="25.5">
+    <row r="964" spans="1:7" ht="38.25">
       <c r="A964" s="83">
         <v>963</v>
       </c>
@@ -51073,7 +51073,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('969','q_1103', '2.NO','2.bv','2','q_1106_a');</v>
       </c>
     </row>
-    <row r="971" spans="1:7" ht="25.5">
+    <row r="971" spans="1:7" ht="38.25">
       <c r="A971" s="83">
         <v>970</v>
       </c>
@@ -51139,7 +51139,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('972','q_1104', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="974" spans="1:7" ht="25.5">
+    <row r="974" spans="1:7" ht="38.25">
       <c r="A974" s="83">
         <v>973</v>
       </c>
@@ -51202,7 +51202,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('975','q_1105_2', '2.PARENT-IN-LAW ','2.k¦ïi kvïwo','1','');</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="25.5">
+    <row r="977" spans="1:7" ht="38.25">
       <c r="A977" s="83">
         <v>976</v>
       </c>
@@ -51223,7 +51223,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('976','q_1105_3', '3.SIBLINGS(BROTHER OR SISTER)','3.fvB-‡evb','1','');</v>
       </c>
     </row>
-    <row r="978" spans="1:7" ht="25.5">
+    <row r="978" spans="1:7" ht="38.25">
       <c r="A978" s="83">
         <v>977</v>
       </c>
@@ -51244,7 +51244,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('977','q_1105_4', '4.OTHER FAMILY MEMBER','4.cwiev‡ii Ab¨ m`m¨','1','');</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="25.5">
+    <row r="979" spans="1:7" ht="38.25">
       <c r="A979" s="83">
         <v>978</v>
       </c>
@@ -51265,7 +51265,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('978','q_1105_5', '5.COUSIN','5.PvPv‡Zv, gvgv‡Zv, dzdv‡Zv, Lvjv‡Zv fvB','1','');</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="25.5">
+    <row r="980" spans="1:7" ht="38.25">
       <c r="A980" s="83">
         <v>979</v>
       </c>
@@ -51286,7 +51286,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('979','q_1105_6', '6.OTHER RELATIVE','6.Ab¨ AvZ¥xq','1','');</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="25.5">
+    <row r="981" spans="1:7" ht="38.25">
       <c r="A981" s="83">
         <v>980</v>
       </c>
@@ -51328,7 +51328,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('981','q_1105_8', '8.NEIGHBOUR','8.cªwZ‡ekx','1','');</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="25.5">
+    <row r="983" spans="1:7" ht="38.25">
       <c r="A983" s="83">
         <v>982</v>
       </c>
@@ -51349,7 +51349,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('982','q_1105_9', '9.SOMEONE AT WORK','9.Kg©‡¶‡Î ‡KD','1','');</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="25.5">
+    <row r="984" spans="1:7" ht="38.25">
       <c r="A984" s="83">
         <v>983</v>
       </c>
@@ -51370,7 +51370,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('983','q_1105_10', '10.FRIENDS ACQUAINTANCE','10.eÜz','1','');</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="25.5">
+    <row r="985" spans="1:7" ht="38.25">
       <c r="A985" s="83">
         <v>984</v>
       </c>
@@ -51391,7 +51391,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('984','q_1105_11', '11.RECENT ACQUAINTANCE','11.Aí cwiwPZ †KD','1','');</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="25.5">
+    <row r="986" spans="1:7" ht="38.25">
       <c r="A986" s="83">
         <v>985</v>
       </c>
@@ -51433,7 +51433,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('986','q_1105_13', '13.TEACHER ','13.wk¶K','1','');</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="25.5">
+    <row r="988" spans="1:7" ht="38.25">
       <c r="A988" s="83">
         <v>987</v>
       </c>
@@ -51454,7 +51454,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('987','q_1105_14', '14.DOCTOR/HEALTH STAFF','14.Wv³vi/¯^v¯’¨Kgx','1','');</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="25.5">
+    <row r="989" spans="1:7" ht="38.25">
       <c r="A989" s="83">
         <v>988</v>
       </c>
@@ -51475,7 +51475,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('988','q_1105_15', '15.PRIEST/RELIGIOUS LEADER','15.†gŠjex/cy‡ivwnZ','1','');</v>
       </c>
     </row>
-    <row r="990" spans="1:7" ht="25.5">
+    <row r="990" spans="1:7" ht="38.25">
       <c r="A990" s="83">
         <v>989</v>
       </c>
@@ -51496,7 +51496,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('989','q_1105_16', '16.POLICE/ SOLDIER','16.cywjk/‰mb¨','1','');</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="30">
+    <row r="991" spans="1:7" ht="38.25">
       <c r="A991" s="83">
         <v>990</v>
       </c>
@@ -51610,7 +51610,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('994','q_1106_a_12', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="25.5">
+    <row r="996" spans="1:7" ht="38.25">
       <c r="A996" s="83">
         <v>995</v>
       </c>
@@ -51722,7 +51722,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('999','q_1106_b_12', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" ht="25.5">
+    <row r="1001" spans="1:7" ht="38.25">
       <c r="A1001" s="83">
         <v>1000</v>
       </c>
@@ -51834,7 +51834,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1004','q_1106_c_12', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" ht="25.5">
+    <row r="1006" spans="1:7" ht="38.25">
       <c r="A1006" s="83">
         <v>1005</v>
       </c>
@@ -51878,7 +51878,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1006','q_1107_1', '1.PARENT','1.evev-gv','1','');</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" ht="25.5">
+    <row r="1008" spans="1:7" ht="38.25">
       <c r="A1008" s="83">
         <v>1007</v>
       </c>
@@ -51900,7 +51900,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1007','q_1107_2', '2.PARENT-IN-LAW ','2.k¦ïi kvïwo','1','');</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" ht="25.5">
+    <row r="1009" spans="1:7" ht="38.25">
       <c r="A1009" s="83">
         <v>1008</v>
       </c>
@@ -51922,7 +51922,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1008','q_1107_3', '3.SIBLINGS(BROTHER OR SISTER)','3.fvB-‡evb','1','');</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" ht="25.5">
+    <row r="1010" spans="1:7" ht="38.25">
       <c r="A1010" s="83">
         <v>1009</v>
       </c>
@@ -51944,7 +51944,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1009','q_1107_4', '4.OTHER FAMILY MEMBER','4.cwiev‡ii Ab¨ m`m¨','1','');</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" ht="25.5">
+    <row r="1011" spans="1:7" ht="38.25">
       <c r="A1011" s="83">
         <v>1010</v>
       </c>
@@ -51966,7 +51966,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1010','q_1107_5', '5.COUSIN','5.PvPv‡Zv, gvgv‡Zv, dzdv‡Zv, Lvjv‡Zv fvB','1','');</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" ht="25.5">
+    <row r="1012" spans="1:7" ht="38.25">
       <c r="A1012" s="83">
         <v>1011</v>
       </c>
@@ -51988,7 +51988,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1011','q_1107_6', '6.OTHER RELATIVE','6.Ab¨ AvZ¥xq','1','');</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="25.5">
+    <row r="1013" spans="1:7" ht="38.25">
       <c r="A1013" s="83">
         <v>1012</v>
       </c>
@@ -52032,7 +52032,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1013','q_1107_8', '8.NEIGHBOUR','8.cªwZ‡ekx','1','');</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" ht="25.5">
+    <row r="1015" spans="1:7" ht="38.25">
       <c r="A1015" s="83">
         <v>1014</v>
       </c>
@@ -52054,7 +52054,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1014','q_1107_9', '9.SOMEONE AT WORK','9.Kg©‡¶‡Î ‡KD','1','');</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" ht="25.5">
+    <row r="1016" spans="1:7" ht="38.25">
       <c r="A1016" s="83">
         <v>1015</v>
       </c>
@@ -52076,7 +52076,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1015','q_1107_10', '10.FRIENDS ACQUAINTANCE','10.eÜz','1','');</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="25.5">
+    <row r="1017" spans="1:7" ht="38.25">
       <c r="A1017" s="83">
         <v>1016</v>
       </c>
@@ -52098,7 +52098,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1016','q_1107_11', '11.RECENT ACQUAINTANCE','11.Aí cwiwPZ †KD','1','');</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" ht="25.5">
+    <row r="1018" spans="1:7" ht="38.25">
       <c r="A1018" s="83">
         <v>1017</v>
       </c>
@@ -52142,7 +52142,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1018','q_1107_13', '13.TEACHER ','13.wk¶K','1','');</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" ht="25.5">
+    <row r="1020" spans="1:7" ht="38.25">
       <c r="A1020" s="83">
         <v>1019</v>
       </c>
@@ -52164,7 +52164,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1019','q_1107_14', '14.DOCTOR/HEALTH STAFF','14.Wv³vi/¯^v¯’¨Kgx','1','');</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" ht="25.5">
+    <row r="1021" spans="1:7" ht="38.25">
       <c r="A1021" s="83">
         <v>1020</v>
       </c>
@@ -52186,7 +52186,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1020','q_1107_15', '15.PRIEST/RELIGIOUS LEADER','15.†gŠjex/cy‡ivwnZ','1','');</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="25.5">
+    <row r="1022" spans="1:7" ht="38.25">
       <c r="A1022" s="83">
         <v>1021</v>
       </c>
@@ -52208,7 +52208,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1021','q_1107_16', '16.POLICE/ SOLDIER','16.cywjk/‰mb¨','1','');</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" ht="30">
+    <row r="1023" spans="1:7" ht="38.25">
       <c r="A1023" s="83">
         <v>1022</v>
       </c>
@@ -52274,7 +52274,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1024','q_1108', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" ht="25.5">
+    <row r="1026" spans="1:7" ht="38.25">
       <c r="A1026" s="83">
         <v>1025</v>
       </c>
@@ -52295,7 +52295,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1025','q_1108', '7.N/A NEVER WORKED','7.cÖ‡hvR¨ bq/  KLbI KvR K‡ibwb','7','');</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="25.5">
+    <row r="1027" spans="1:7" ht="38.25">
       <c r="A1027" s="83">
         <v>1026</v>
       </c>
@@ -52358,7 +52358,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1028','q_1109', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="25.5">
+    <row r="1030" spans="1:7" ht="38.25">
       <c r="A1030" s="83">
         <v>1029</v>
       </c>
@@ -52379,7 +52379,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1029','q_1109', '7.N/A NEVER WORKED','7.cÖ‡hvR¨ bq/  KLbI KvR K‡ibwb','7','');</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="25.5">
+    <row r="1031" spans="1:7" ht="38.25">
       <c r="A1031" s="83">
         <v>1030</v>
       </c>
@@ -52442,7 +52442,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1032','q_1110', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="25.5">
+    <row r="1034" spans="1:7" ht="38.25">
       <c r="A1034" s="83">
         <v>1033</v>
       </c>
@@ -52505,7 +52505,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1035','q_1111', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1037" spans="1:7" ht="25.5">
+    <row r="1037" spans="1:7" ht="38.25">
       <c r="A1037" s="83">
         <v>1036</v>
       </c>
@@ -52526,7 +52526,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1036','q_1111', '7.DOES NOT USE CELL PHONE','7.†gvevBj †dvb bvB','7','');</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="25.5">
+    <row r="1038" spans="1:7" ht="38.25">
       <c r="A1038" s="83">
         <v>1037</v>
       </c>
@@ -52614,7 +52614,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1040','q_1113_1', '1.PARENT','1.evev-gv','1','');</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" ht="25.5">
+    <row r="1042" spans="1:7" ht="38.25">
       <c r="A1042" s="83">
         <v>1041</v>
       </c>
@@ -52636,7 +52636,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1041','q_1113_2', '2.PARENT-IN-LAW ','2.k¦ïi kvïwo','1','');</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="25.5">
+    <row r="1043" spans="1:7" ht="38.25">
       <c r="A1043" s="83">
         <v>1042</v>
       </c>
@@ -52658,7 +52658,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1042','q_1113_3', '3.SIBLINGS(BROTHER OR SISTER)','3.fvB-‡evb','1','');</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="25.5">
+    <row r="1044" spans="1:7" ht="38.25">
       <c r="A1044" s="83">
         <v>1043</v>
       </c>
@@ -52680,7 +52680,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1043','q_1113_4', '4.OTHER FAMILY MEMBER','4.cwiev‡ii Ab¨ m`m¨','1','');</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" ht="25.5">
+    <row r="1045" spans="1:7" ht="38.25">
       <c r="A1045" s="83">
         <v>1044</v>
       </c>
@@ -52702,7 +52702,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1044','q_1113_5', '5.COUSIN','5.PvPv‡Zv, gvgv‡Zv, dzdv‡Zv, Lvjv‡Zv fvB','1','');</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" ht="25.5">
+    <row r="1046" spans="1:7" ht="38.25">
       <c r="A1046" s="83">
         <v>1045</v>
       </c>
@@ -52724,7 +52724,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1045','q_1113_6', '6.OTHER RELATIVE','6.Ab¨ AvZ¥xq','1','');</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" ht="25.5">
+    <row r="1047" spans="1:7" ht="38.25">
       <c r="A1047" s="83">
         <v>1046</v>
       </c>
@@ -52768,7 +52768,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1047','q_1113_8', '8.NEIGHBOUR','8.cªwZ‡ekx','1','');</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" ht="25.5">
+    <row r="1049" spans="1:7" ht="38.25">
       <c r="A1049" s="83">
         <v>1048</v>
       </c>
@@ -52790,7 +52790,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1048','q_1113_9', '9.SOMEONE AT WORK','9.Kg©‡¶‡Î ‡KD','1','');</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" ht="25.5">
+    <row r="1050" spans="1:7" ht="38.25">
       <c r="A1050" s="83">
         <v>1049</v>
       </c>
@@ -52812,7 +52812,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1049','q_1113_10', '10.FRIENDS ACQUAINTANCE','10.eÜz','1','');</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" ht="25.5">
+    <row r="1051" spans="1:7" ht="38.25">
       <c r="A1051" s="83">
         <v>1050</v>
       </c>
@@ -52834,7 +52834,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1050','q_1113_11', '11.RECENT ACQUAINTANCE','11.Aí cwiwPZ †KD','1','');</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" ht="25.5">
+    <row r="1052" spans="1:7" ht="38.25">
       <c r="A1052" s="83">
         <v>1051</v>
       </c>
@@ -52878,7 +52878,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1052','q_1113_13', '13.TEACHER ','13.wk¶K','1','');</v>
       </c>
     </row>
-    <row r="1054" spans="1:7" ht="25.5">
+    <row r="1054" spans="1:7" ht="38.25">
       <c r="A1054" s="83">
         <v>1053</v>
       </c>
@@ -52900,7 +52900,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1053','q_1113_14', '14.DOCTOR/HEALTH STAFF','14.Wv³vi/¯^v¯’¨Kgx','1','');</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" ht="25.5">
+    <row r="1055" spans="1:7" ht="38.25">
       <c r="A1055" s="83">
         <v>1054</v>
       </c>
@@ -52922,7 +52922,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1054','q_1113_15', '15.PRIEST/RELIGIOUS LEADER','15.†gŠjex/cy‡ivwnZ','1','');</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="25.5">
+    <row r="1056" spans="1:7" ht="38.25">
       <c r="A1056" s="83">
         <v>1055</v>
       </c>
@@ -52944,7 +52944,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1055','q_1113_16', '16.POLICE/ SOLDIER','16.cywjk/‰mb¨','1','');</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="30">
+    <row r="1057" spans="1:7" ht="38.25">
       <c r="A1057" s="83">
         <v>1056</v>
       </c>
@@ -54277,7 +54277,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1118','q_1119', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1120" spans="1:7" ht="25.5">
+    <row r="1120" spans="1:7" ht="38.25">
       <c r="A1120" s="83">
         <v>1119</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1121','q_1120', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1123" spans="1:7" ht="25.5">
+    <row r="1123" spans="1:7" ht="38.25">
       <c r="A1123" s="83">
         <v>1122</v>
       </c>
@@ -54403,7 +54403,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1124','q_1121', '2.OUTSIDE','2.evB‡i','2','');</v>
       </c>
     </row>
-    <row r="1126" spans="1:7" ht="25.5">
+    <row r="1126" spans="1:7" ht="38.25">
       <c r="A1126" s="83">
         <v>1125</v>
       </c>
@@ -54424,7 +54424,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1125','q_1123', '1.NOT CONCERNED','1.GK`g DwØMœ bv','1','');</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" ht="25.5">
+    <row r="1127" spans="1:7" ht="38.25">
       <c r="A1127" s="83">
         <v>1126</v>
       </c>
@@ -54445,7 +54445,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1126','q_1123', '2.A LITTLE CONCERNED','2.wKQzUv DwØMœ','2','');</v>
       </c>
     </row>
-    <row r="1128" spans="1:7" ht="25.5">
+    <row r="1128" spans="1:7" ht="38.25">
       <c r="A1128" s="83">
         <v>1127</v>
       </c>
@@ -54466,7 +54466,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1127','q_1123', '3.VERY CONCERNED','3.A‡bK †ekx DwØMœ','3','');</v>
       </c>
     </row>
-    <row r="1129" spans="1:7" ht="25.5">
+    <row r="1129" spans="1:7" ht="38.25">
       <c r="A1129" s="83">
         <v>1128</v>
       </c>
@@ -54487,7 +54487,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1128','q_1123', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwb bv/ g‡b co‡Q bv','8','');</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" ht="25.5">
+    <row r="1130" spans="1:7" ht="38.25">
       <c r="A1130" s="83">
         <v>1129</v>
       </c>
@@ -54508,7 +54508,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1129','q_1123', '9.REFUSED/NO ANSWER ','9.evwZj/ DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" ht="25.5">
+    <row r="1131" spans="1:7" ht="38.25">
       <c r="A1131" s="83">
         <v>1130</v>
       </c>
@@ -54529,7 +54529,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1130','q_1125', '1.WANTED TO HAVE SEX ','1.c~Y© m¤§wZ wQj','1','');</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" ht="25.5">
+    <row r="1132" spans="1:7" ht="38.25">
       <c r="A1132" s="83">
         <v>1131</v>
       </c>
@@ -54550,7 +54550,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1131','q_1125', '2.NOT WANT BUT HAD SEX','2.bv PvB‡ZI N‡U‡Q','2','');</v>
       </c>
     </row>
-    <row r="1133" spans="1:7" ht="25.5">
+    <row r="1133" spans="1:7" ht="38.25">
       <c r="A1133" s="83">
         <v>1132</v>
       </c>
@@ -54571,7 +54571,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1132','q_1125', '3.FORCED TO HAVE  SEX','3.†Rvic~e©K','3','');</v>
       </c>
     </row>
-    <row r="1134" spans="1:7" ht="25.5">
+    <row r="1134" spans="1:7" ht="38.25">
       <c r="A1134" s="83">
         <v>1133</v>
       </c>
@@ -54637,7 +54637,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1135','q_1126', '2.NO','2.bv','2','q_1128');</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" ht="25.5">
+    <row r="1137" spans="1:7" ht="38.25">
       <c r="A1137" s="83">
         <v>1136</v>
       </c>
@@ -54661,7 +54661,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1136','q_1126', '3.PARENTS DID NOT LIVE TOGETHER','3.wcZvgvZv GKmv‡_ evm Ki‡Zb bv','3','q_1128');</v>
       </c>
     </row>
-    <row r="1138" spans="1:7" ht="25.5">
+    <row r="1138" spans="1:7" ht="38.25">
       <c r="A1138" s="83">
         <v>1137</v>
       </c>
@@ -54685,7 +54685,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1137','q_1126', '8.DON’T KNOW','8.Rvwb bv/ g‡b co‡Q bv','8','q_1128');</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="25.5">
+    <row r="1139" spans="1:7" ht="38.25">
       <c r="A1139" s="83">
         <v>1138</v>
       </c>
@@ -54796,7 +54796,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1142','q_1128', '2.NO','2.bv','2','q_1130');</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" ht="25.5">
+    <row r="1144" spans="1:7" ht="38.25">
       <c r="A1144" s="83">
         <v>1143</v>
       </c>
@@ -54820,7 +54820,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1143','q_1128', '8.DON’T KNOW','8.Rvwb bv/ g‡b co‡Q bv','8','q_1130');</v>
       </c>
     </row>
-    <row r="1145" spans="1:7" ht="25.5">
+    <row r="1145" spans="1:7" ht="38.25">
       <c r="A1145" s="83">
         <v>1144</v>
       </c>
@@ -54886,7 +54886,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1146','q_1129', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1148" spans="1:7" ht="25.5">
+    <row r="1148" spans="1:7" ht="38.25">
       <c r="A1148" s="83">
         <v>1147</v>
       </c>
@@ -54907,7 +54907,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1147','q_1129', '8.DON’T KNOW','8.Rvwb bv/ g‡b co‡Q bv','8','');</v>
       </c>
     </row>
-    <row r="1149" spans="1:7" ht="25.5">
+    <row r="1149" spans="1:7" ht="38.25">
       <c r="A1149" s="83">
         <v>1148</v>
       </c>
@@ -54970,7 +54970,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1150','q_1130', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" ht="25.5">
+    <row r="1152" spans="1:7" ht="38.25">
       <c r="A1152" s="83">
         <v>1151</v>
       </c>
@@ -54991,7 +54991,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1151','q_1130', '8.DON’T KNOW','8.Rvwb bv/ g‡b co‡Q bv','8','');</v>
       </c>
     </row>
-    <row r="1153" spans="1:7" ht="25.5">
+    <row r="1153" spans="1:7" ht="38.25">
       <c r="A1153" s="83">
         <v>1152</v>
       </c>
@@ -55036,7 +55036,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1153','q_1201', '0.NO','0.bv','0','q_1203');</v>
       </c>
     </row>
-    <row r="1155" spans="1:7" ht="25.5">
+    <row r="1155" spans="1:7" ht="38.25">
       <c r="A1155" s="83">
         <v>1154</v>
       </c>
@@ -55060,7 +55060,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1154','q_1201', '1.YES, ALONE ','1.nu¨v, GKv','1','q_1203');</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="25.5">
+    <row r="1156" spans="1:7" ht="38.25">
       <c r="A1156" s="83">
         <v>1155</v>
       </c>
@@ -55081,7 +55081,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1155','q_1201', '3.YES, WITH CHILD','3.nu¨v,  mšÍv‡bi mv‡_','3','');</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="25.5">
+    <row r="1157" spans="1:7" ht="38.25">
       <c r="A1157" s="83">
         <v>1156</v>
       </c>
@@ -55102,7 +55102,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1156','q_1201', '4.YES, WITH HUSBAND','4.nu¨v,  ¯^vgxi mv‡_','4','');</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="25.5">
+    <row r="1158" spans="1:7" ht="38.25">
       <c r="A1158" s="83">
         <v>1157</v>
       </c>
@@ -55123,7 +55123,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1157','q_1201', '5.YES,WITH ADULT FEMALE','5.nu¨v, c~Y© eq¯‹ gwnjvi mv‡_','5','');</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="25.5">
+    <row r="1159" spans="1:7" ht="38.25">
       <c r="A1159" s="83">
         <v>1158</v>
       </c>
@@ -55144,7 +55144,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1158','q_1201', '6.YES, WITH ADULT MALE ','6.nu¨v, c~Y© eq¯‹ cyiæ‡li mv‡_','6','');</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" s="57" customFormat="1" ht="30">
+    <row r="1160" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A1160" s="83">
         <v>1159</v>
       </c>
@@ -55234,7 +55234,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1162','q_1203', '0.NO','0.bv','0','q_1205');</v>
       </c>
     </row>
-    <row r="1164" spans="1:7" ht="25.5">
+    <row r="1164" spans="1:7" ht="38.25">
       <c r="A1164" s="83">
         <v>1163</v>
       </c>
@@ -55258,7 +55258,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1163','q_1203', '1.YES, ALONE ','1.nu¨v, GKv','1','q_1205');</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" ht="25.5">
+    <row r="1165" spans="1:7" ht="38.25">
       <c r="A1165" s="83">
         <v>1164</v>
       </c>
@@ -55280,7 +55280,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1164','q_1203', '3.YES, WITH CHILD','3.nu¨v,  mšÍv‡bi mv‡_','3','');</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" ht="25.5">
+    <row r="1166" spans="1:7" ht="38.25">
       <c r="A1166" s="83">
         <v>1165</v>
       </c>
@@ -55302,7 +55302,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1165','q_1203', '4.YES, WITH HUSBAND','4.nu¨v,  ¯^vgxi mv‡_','4','');</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" ht="25.5">
+    <row r="1167" spans="1:7" ht="38.25">
       <c r="A1167" s="83">
         <v>1166</v>
       </c>
@@ -55324,7 +55324,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1166','q_1203', '5.YES,WITH ADULT FEMALE','5.nu¨v, c~Y© eq¯‹ gwnjvi mv‡_','5','');</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="25.5">
+    <row r="1168" spans="1:7" ht="38.25">
       <c r="A1168" s="83">
         <v>1167</v>
       </c>
@@ -55346,7 +55346,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1167','q_1203', '6.YES, WITH ADULT MALE ','6.nu¨v, c~Y© eq¯‹ cyiæ‡li mv‡_','6','');</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" s="57" customFormat="1" ht="30">
+    <row r="1169" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A1169" s="83">
         <v>1168</v>
       </c>
@@ -55436,7 +55436,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1171','q_1205', '0.NO','0.bv','0','q_1207');</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" ht="25.5">
+    <row r="1173" spans="1:7" ht="38.25">
       <c r="A1173" s="83">
         <v>1172</v>
       </c>
@@ -55460,7 +55460,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1172','q_1205', '1.YES, ALONE ','1.nu¨v, GKv','1','q_1207');</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="25.5">
+    <row r="1174" spans="1:7" ht="38.25">
       <c r="A1174" s="83">
         <v>1173</v>
       </c>
@@ -55482,7 +55482,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1173','q_1205', '3.YES, WITH CHILD','3.nu¨v,  mšÍv‡bi mv‡_','3','');</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" ht="25.5">
+    <row r="1175" spans="1:7" ht="38.25">
       <c r="A1175" s="83">
         <v>1174</v>
       </c>
@@ -55504,7 +55504,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1174','q_1205', '4.YES, WITH HUSBAND','4.nu¨v,  ¯^vgxi mv‡_','4','');</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="25.5">
+    <row r="1176" spans="1:7" ht="38.25">
       <c r="A1176" s="83">
         <v>1175</v>
       </c>
@@ -55526,7 +55526,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1175','q_1205', '5.YES,WITH ADULT FEMALE','5.nu¨v, c~Y© eq¯‹ gwnjvi mv‡_','5','');</v>
       </c>
     </row>
-    <row r="1177" spans="1:7" ht="25.5">
+    <row r="1177" spans="1:7" ht="38.25">
       <c r="A1177" s="83">
         <v>1176</v>
       </c>
@@ -55548,7 +55548,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1176','q_1205', '6.YES, WITH ADULT MALE ','6.nu¨v, c~Y© eq¯‹ cyiæ‡li mv‡_','6','');</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" s="57" customFormat="1" ht="30">
+    <row r="1178" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A1178" s="83">
         <v>1177</v>
       </c>
@@ -55638,7 +55638,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1180','q_1207', '0.NO','0.bv','0','q_1209');</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" ht="25.5">
+    <row r="1182" spans="1:7" ht="38.25">
       <c r="A1182" s="83">
         <v>1181</v>
       </c>
@@ -55662,7 +55662,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1181','q_1207', '1.YES, ALONE ','1.nu¨v, GKv','1','q_1209');</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" ht="25.5">
+    <row r="1183" spans="1:7" ht="38.25">
       <c r="A1183" s="83">
         <v>1182</v>
       </c>
@@ -55684,7 +55684,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1182','q_1207', '3.YES, WITH CHILD','3.nu¨v,  mšÍv‡bi mv‡_','3','');</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" ht="25.5">
+    <row r="1184" spans="1:7" ht="38.25">
       <c r="A1184" s="83">
         <v>1183</v>
       </c>
@@ -55706,7 +55706,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1183','q_1207', '4.YES, WITH HUSBAND','4.nu¨v,  ¯^vgxi mv‡_','4','');</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" ht="25.5">
+    <row r="1185" spans="1:7" ht="38.25">
       <c r="A1185" s="83">
         <v>1184</v>
       </c>
@@ -55728,7 +55728,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1184','q_1207', '5.YES,WITH ADULT FEMALE','5.nu¨v, c~Y© eq¯‹ gwnjvi mv‡_','5','');</v>
       </c>
     </row>
-    <row r="1186" spans="1:7" ht="25.5">
+    <row r="1186" spans="1:7" ht="38.25">
       <c r="A1186" s="83">
         <v>1185</v>
       </c>
@@ -55750,7 +55750,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1185','q_1207', '6.YES, WITH ADULT MALE ','6.nu¨v, c~Y© eq¯‹ cyiæ‡li mv‡_','6','');</v>
       </c>
     </row>
-    <row r="1187" spans="1:7" s="57" customFormat="1" ht="30">
+    <row r="1187" spans="1:7" s="57" customFormat="1" ht="38.25">
       <c r="A1187" s="83">
         <v>1186</v>
       </c>
@@ -55984,7 +55984,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1196','q_1212', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1198" spans="1:7" ht="25.5">
+    <row r="1198" spans="1:7" ht="38.25">
       <c r="A1198" s="83">
         <v>1197</v>
       </c>
@@ -56152,7 +56152,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1204','q_1213', '7.N/A ','7.cÖ‡hvR¨ bq/Avq K‡ib bv','7','');</v>
       </c>
     </row>
-    <row r="1206" spans="1:7" ht="25.5">
+    <row r="1206" spans="1:7" ht="38.25">
       <c r="A1206" s="83">
         <v>1205</v>
       </c>
@@ -56174,7 +56174,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1205','q_1214_11', '11.Other property, specify','11.Ab¨vb¨ m¤cwË, wbw`©ó K‡i ejyb','0','');</v>
       </c>
     </row>
-    <row r="1207" spans="1:7" ht="25.5">
+    <row r="1207" spans="1:7" ht="38.25">
       <c r="A1207" s="83">
         <v>1206</v>
       </c>
@@ -56195,7 +56195,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1206','q_1214_10', '10.Savings in the bank ','10.e¨vs‡K Rgv','0','');</v>
       </c>
     </row>
-    <row r="1208" spans="1:7" ht="25.5">
+    <row r="1208" spans="1:7" ht="38.25">
       <c r="A1208" s="83">
         <v>1207</v>
       </c>
@@ -56216,7 +56216,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1207','q_1214_9', '9.Motor car','9.Bwb&amp;Rb PvwjZ Mvwo','0','');</v>
       </c>
     </row>
-    <row r="1209" spans="1:7" ht="25.5">
+    <row r="1209" spans="1:7" ht="38.25">
       <c r="A1209" s="83">
         <v>1208</v>
       </c>
@@ -56237,7 +56237,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1208','q_1214_8', '8.Jewellery, gold or other valuables ','8.m¦Y©vjsKvi, m¦Y© ev Ab¨v¨ g~j¨evb mvgMªx','0','');</v>
       </c>
     </row>
-    <row r="1210" spans="1:7" ht="31.5">
+    <row r="1210" spans="1:7" ht="51">
       <c r="A1210" s="83">
         <v>1209</v>
       </c>
@@ -56258,7 +56258,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1209','q_1214_7', '7.Large household items (TV, bed, cooker) ','7.eo cvwievwiK wRwbm (wXwf, weQvbv, ivbœvi mvgMªx, BZ¨vw`)','0','');</v>
       </c>
     </row>
-    <row r="1211" spans="1:7" ht="31.5">
+    <row r="1211" spans="1:7" ht="51">
       <c r="A1211" s="83">
         <v>1210</v>
       </c>
@@ -56279,7 +56279,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1210','q_1214_6', '6.Produce or crops from certain fields or trees','6.wbw`©ó ‡Kvb Rwg ev MvQ ‡_‡K Drcvw`Z cb¨ A_ev km¨','0','');</v>
       </c>
     </row>
-    <row r="1212" spans="1:7" ht="30">
+    <row r="1212" spans="1:7" ht="38.25">
       <c r="A1212" s="83">
         <v>1211</v>
       </c>
@@ -56300,7 +56300,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1211','q_1214_5', '5.Small animals (chickens, pigs, goats, etc.)','5.‡QvU cïÐcvwL (nuvm gyiwM, QvMj, BZ¨vw`)','0','');</v>
       </c>
     </row>
-    <row r="1213" spans="1:7" ht="25.5">
+    <row r="1213" spans="1:7" ht="38.25">
       <c r="A1213" s="83">
         <v>1212</v>
       </c>
@@ -56321,7 +56321,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1212','q_1214_4', '4.Large animals (cows, horses, etc.)','4.eo cï (Miy, ‡Nvov, BZ¨vw`)','0','');</v>
       </c>
     </row>
-    <row r="1214" spans="1:7" ht="25.5">
+    <row r="1214" spans="1:7" ht="38.25">
       <c r="A1214" s="83">
         <v>1213</v>
       </c>
@@ -56405,7 +56405,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1216','q_1214_Options', '1.NO','1.bvB','1','');</v>
       </c>
     </row>
-    <row r="1218" spans="1:7" ht="30">
+    <row r="1218" spans="1:7" ht="38.25">
       <c r="A1218" s="83">
         <v>1217</v>
       </c>
@@ -56426,7 +56426,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1217','q_1214_Options', '2.YES Own by self','2.GKK gvwjKvbv','2','');</v>
       </c>
     </row>
-    <row r="1219" spans="1:7" ht="30">
+    <row r="1219" spans="1:7" ht="38.25">
       <c r="A1219" s="83">
         <v>1218</v>
       </c>
@@ -56489,7 +56489,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1220','q_1215', '2.SPOUSE','2.¯^vgx','2','');</v>
       </c>
     </row>
-    <row r="1222" spans="1:7" ht="30">
+    <row r="1222" spans="1:7" ht="38.25">
       <c r="A1222" s="83">
         <v>1221</v>
       </c>
@@ -56573,7 +56573,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1224','q_1216', '2.SPOUSE','2.¯^vgx','2','');</v>
       </c>
     </row>
-    <row r="1226" spans="1:7" ht="30">
+    <row r="1226" spans="1:7" ht="38.25">
       <c r="A1226" s="83">
         <v>1225</v>
       </c>
@@ -56657,7 +56657,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1228','q_1217', '2.SPOUSE','2.¯^vgx','2','');</v>
       </c>
     </row>
-    <row r="1230" spans="1:7" ht="30">
+    <row r="1230" spans="1:7" ht="38.25">
       <c r="A1230" s="83">
         <v>1229</v>
       </c>
@@ -56699,7 +56699,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1230','q_1217', '4.SOMEONE ELSE','4.Ab¨ †KD','4','');</v>
       </c>
     </row>
-    <row r="1232" spans="1:7" ht="25.5">
+    <row r="1232" spans="1:7" ht="38.25">
       <c r="A1232" s="83">
         <v>1231</v>
       </c>
@@ -56720,7 +56720,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1231','q_1218', '1.SELF/OWN CHOICE','1.cy‡ivUvq wb‡Ri B”Qvq LiP Ki‡Z cv‡ib','1','');</v>
       </c>
     </row>
-    <row r="1233" spans="1:7" ht="25.5">
+    <row r="1233" spans="1:7" ht="38.25">
       <c r="A1233" s="83">
         <v>1232</v>
       </c>
@@ -56741,7 +56741,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1232','q_1218', '2.GIVE PART TO HUSBAND/PARTNER','2.wKQz ¯^vgx‡K w`‡q w`‡Z nq','2','');</v>
       </c>
     </row>
-    <row r="1234" spans="1:7" ht="25.5">
+    <row r="1234" spans="1:7" ht="38.25">
       <c r="A1234" s="83">
         <v>1233</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1233','q_1218', '3.GIVE ALL TO HUSBAND/PARTNER','3.cy‡ivUvq ¯^vgx‡K w`‡q w`‡Z nq','3','');</v>
       </c>
     </row>
-    <row r="1235" spans="1:7" ht="25.5">
+    <row r="1235" spans="1:7" ht="38.25">
       <c r="A1235" s="83">
         <v>1234</v>
       </c>
@@ -56783,7 +56783,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1234','q_1218', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb / DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="1236" spans="1:7" ht="25.5">
+    <row r="1236" spans="1:7" ht="38.25">
       <c r="A1236" s="83">
         <v>1235</v>
       </c>
@@ -56807,7 +56807,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1235','q_1218', '7.NO INCOME ','7.‡ivRMvi K‡ibbv','7','q_1220');</v>
       </c>
     </row>
-    <row r="1237" spans="1:7" ht="25.5">
+    <row r="1237" spans="1:7" ht="38.25">
       <c r="A1237" s="83">
         <v>1236</v>
       </c>
@@ -56828,7 +56828,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1236','q_1219', '1.MORE THAN HUSBAND','1.¯^vgxi †P‡q †ekx UvKv †`b','1','');</v>
       </c>
     </row>
-    <row r="1238" spans="1:7" ht="25.5">
+    <row r="1238" spans="1:7" ht="38.25">
       <c r="A1238" s="83">
         <v>1237</v>
       </c>
@@ -56849,7 +56849,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1237','q_1219', '2.LESS THAN HUSBAND','2.¯^vgxi †P‡q Kg UvKv †`b','2','');</v>
       </c>
     </row>
-    <row r="1239" spans="1:7" ht="25.5">
+    <row r="1239" spans="1:7" ht="38.25">
       <c r="A1239" s="83">
         <v>1238</v>
       </c>
@@ -56870,7 +56870,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1238','q_1219', '3.ABOUT THE SAME','3.mgcwigvb UvKv †`b','3','');</v>
       </c>
     </row>
-    <row r="1240" spans="1:7" s="83" customFormat="1" ht="25.5">
+    <row r="1240" spans="1:7" s="83" customFormat="1" ht="38.25">
       <c r="A1240" s="83">
         <v>1239</v>
       </c>
@@ -56891,7 +56891,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1239','q_1219', '4.RESPONDENT GIVES ALL','4.cy‡ivUvq DËi`vZv †`b','4','');</v>
       </c>
     </row>
-    <row r="1241" spans="1:7" s="83" customFormat="1" ht="25.5">
+    <row r="1241" spans="1:7" s="83" customFormat="1" ht="38.25">
       <c r="A1241" s="83">
         <v>1240</v>
       </c>
@@ -56912,7 +56912,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1240','q_1219', '5.HUSBAND/PARTNER GIVES ALL ','5.cy‡ivUvq ¯^vgx †`b','5','');</v>
       </c>
     </row>
-    <row r="1242" spans="1:7" s="83" customFormat="1" ht="25.5">
+    <row r="1242" spans="1:7" s="83" customFormat="1" ht="38.25">
       <c r="A1242" s="83">
         <v>1241</v>
       </c>
@@ -56954,7 +56954,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1242','q_1219', '8.DO NOT KNOW','8.Rvwb bv','8','');</v>
       </c>
     </row>
-    <row r="1244" spans="1:7" ht="25.5">
+    <row r="1244" spans="1:7" ht="38.25">
       <c r="A1244" s="83">
         <v>1243</v>
       </c>
@@ -57017,7 +57017,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1245','q_1220', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1247" spans="1:7" ht="25.5">
+    <row r="1247" spans="1:7" ht="38.25">
       <c r="A1247" s="83">
         <v>1246</v>
       </c>
@@ -57038,7 +57038,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1246','q_1220', '8.DO NOT KNOW','8.Rvwb bv/ g‡b co‡Q bv','8','');</v>
       </c>
     </row>
-    <row r="1248" spans="1:7" ht="25.5">
+    <row r="1248" spans="1:7" ht="38.25">
       <c r="A1248" s="83">
         <v>1247</v>
       </c>
@@ -57122,7 +57122,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1250','q_1221', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1252" spans="1:7" ht="25.5">
+    <row r="1252" spans="1:7" ht="38.25">
       <c r="A1252" s="83">
         <v>1251</v>
       </c>
@@ -57143,7 +57143,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1251','q_1221', '8.DO NOT KNOW','8.Rvwb bv/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="1253" spans="1:7" ht="25.5">
+    <row r="1253" spans="1:7" ht="38.25">
       <c r="A1253" s="83">
         <v>1252</v>
       </c>
@@ -57164,7 +57164,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1252','q_1221', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb / DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="1254" spans="1:7" ht="25.5">
+    <row r="1254" spans="1:7" ht="38.25">
       <c r="A1254" s="83">
         <v>1253</v>
       </c>
@@ -57185,7 +57185,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1253','q_1301', '1.CARD COMPLETED','1.DËi`vZv KvW© ciY K‡i e¨v‡M ivL‡j','1','');</v>
       </c>
     </row>
-    <row r="1255" spans="1:7" ht="25.5">
+    <row r="1255" spans="1:7" ht="38.25">
       <c r="A1255" s="83">
         <v>1254</v>
       </c>
@@ -57206,7 +57206,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1254','q_1301', '2.CARD NOT COMPLETED','2.KvW© ciY bv Ki‡j','2','');</v>
       </c>
     </row>
-    <row r="1256" spans="1:7" ht="25.5">
+    <row r="1256" spans="1:7" ht="38.25">
       <c r="A1256" s="83">
         <v>1255</v>
       </c>
@@ -57227,7 +57227,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1255','q_1302', '1.CARD COMPLETED','1.DËi`vZv KvW© ciY K‡i e¨v‡M ivL‡j','1','');</v>
       </c>
     </row>
-    <row r="1257" spans="1:7" ht="25.5">
+    <row r="1257" spans="1:7" ht="38.25">
       <c r="A1257" s="83">
         <v>1256</v>
       </c>
@@ -57290,7 +57290,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1258','q_1304', '2.BAD/WORSE','2.Lvivc','2','');</v>
       </c>
     </row>
-    <row r="1260" spans="1:7" ht="25.5">
+    <row r="1260" spans="1:7" ht="38.25">
       <c r="A1260" s="83">
         <v>1259</v>
       </c>
@@ -57530,7 +57530,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1269','QB1', '2.Sad face ','2.`ytLx gy‡L','2','');</v>
       </c>
     </row>
-    <row r="1271" spans="1:7" ht="25.5">
+    <row r="1271" spans="1:7" ht="38.25">
       <c r="A1271" s="83">
         <v>1270</v>
       </c>
@@ -57593,7 +57593,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1272','QB2', '2.Sad face ','2.`ytLx gy‡L','2','');</v>
       </c>
     </row>
-    <row r="1274" spans="1:7" ht="25.5">
+    <row r="1274" spans="1:7" ht="38.25">
       <c r="A1274" s="83">
         <v>1273</v>
       </c>
